--- a/806209426/localisation/excel/decisions_l_german.xlsx
+++ b/806209426/localisation/excel/decisions_l_german.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="405">
   <si>
     <t xml:space="preserve">l_german:</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve"> POPUP_NEWS:</t>
   </si>
   <si>
-    <t xml:space="preserve">News-Popup</t>
+    <t xml:space="preserve">Nachrichten-Popup</t>
   </si>
   <si>
     <t xml:space="preserve"> POPUP_EVENTS:</t>
@@ -52,25 +52,25 @@
     <t xml:space="preserve"> NEWS_POPUP_CHECKBOX_TOOLTIP:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§GClick§! to toggle News notifications.</t>
+    <t xml:space="preserve">§G§G Klicken Sie auf §!§!, um die Nachrichten-Benachrichtigungen umzuschalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> EVENT_POPUP_CHECKBOX_TOOLTIP:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§GClick§! to toggle Event notifications.</t>
+    <t xml:space="preserve">§G§G Klicken Sie auf §!§!, um Ereignis-Benachrichtigungen umzuschalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> MINOR_EVENT_POPUP_CHECKBOX_TOOLTIP:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§GClick§! to toggle minor event notifications, such as Ace Pilot events.</t>
+    <t xml:space="preserve">§G§G Klicken Sie auf §!§!, um kleinere Ereignis-Benachrichtigungen, wie z.B. Ace Pilot-Ereignisse, einzuschalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> POPUP_MINOR_EVENTS:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Minor Popup</t>
+    <t xml:space="preserve">Kleines Popup</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -79,19 +79,19 @@
     <t xml:space="preserve"> defend_another_country_TT:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The country is not in a state to defend another country now. This could be caused by having too few divisions to garrison its states, having war near its homearea or just an overall low division count.\n\n</t>
+    <t xml:space="preserve">Das Land ist im Moment nicht in der Lage, ein anderes Land zu verteidigen. Dies kann daran liegen, dass es zu wenige Divisionen hat, um seine Staaten zu garnisonieren, dass in der Nähe seines Heimatgebiets Krieg herrscht oder dass die Anzahl der Divisionen insgesamt zu niedrig ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> dont_defend_FROM_TT:0</t>
   </si>
   <si>
-    <t xml:space="preserve">will not defend §Y[From.GetAdjective]§! borders.</t>
+    <t xml:space="preserve">wird die Grenzen von §Y§Y [From.GetAdjective] §!§! nicht verteidigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> coordinate_war_effort:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Coordinate the War Effort</t>
+    <t xml:space="preserve">Koordiniere die Kriegsanstrengungen</t>
   </si>
   <si>
     <t xml:space="preserve"> coordinate_war_effort_desc:0</t>
@@ -103,43 +103,43 @@
     <t xml:space="preserve"> EAI_diplomacy_DECISIONS:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Coordinate Military Efforts</t>
+    <t xml:space="preserve">Militärische Anstrengungen koordinieren</t>
   </si>
   <si>
     <t xml:space="preserve"> EAI_diplomacy_DECISIONS_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact the high command of other AI controlled countries to coordinate military efforts.</t>
+    <t xml:space="preserve">Kontaktieren Sie das Oberkommando anderer KI-kontrollierter Länder, um die militärischen Anstrengungen zu koordinieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> field_exercise_sov:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Conduct Field Exercises</t>
+    <t xml:space="preserve">Führen Sie Feldübungen durch</t>
   </si>
   <si>
     <t xml:space="preserve"> field_exercise_sov_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Japan is at our door, Germany is beginning to group up troops at the border, it seems like our army isn't ready for war.</t>
+    <t xml:space="preserve">Japan steht vor unserer Tür, Deutschland fängt an, Truppen an der Grenze aufzustellen, es scheint, als wäre unsere Armee nicht bereit für den Krieg.</t>
   </si>
   <si>
     <t xml:space="preserve"> red_navy_buildup:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Buildup the Red Navy</t>
+    <t xml:space="preserve">Bauen Sie die Rote Marine auf</t>
   </si>
   <si>
     <t xml:space="preserve"> red_navy_buildup_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Building up the Red Navy will enable us to destroy the enemy in the Baltic!</t>
+    <t xml:space="preserve">Der Aufbau der Roten Marine wird uns in die Lage versetzen, den Feind in der Ostsee zu vernichten!</t>
   </si>
   <si>
     <t xml:space="preserve"> cp_cost50:0</t>
   </si>
   <si>
-    <t xml:space="preserve">£command_power §Y50§!</t>
+    <t xml:space="preserve">£command_power §Y§Y 50 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> cp_cost50_blocked:0</t>
@@ -148,16 +148,19 @@
     <t xml:space="preserve"> cp_cost15:0</t>
   </si>
   <si>
-    <t xml:space="preserve">£command_power §Y15§!</t>
+    <t xml:space="preserve">£command_power §Y§Y 15 §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> cp_cost15_blocked:0</t>
   </si>
   <si>
+    <t xml:space="preserve">Befehlsgewalt §Y§Y 15 §!§! </t>
+  </si>
+  <si>
     <t xml:space="preserve"> officer_purges:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Reorganization of the Military</t>
+    <t xml:space="preserve">Reorganisation des Militärs</t>
   </si>
   <si>
     <t xml:space="preserve"> officer_purges2:0</t>
@@ -190,289 +193,295 @@
     <t xml:space="preserve"> poland_war_soviet:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Takeover of Poland</t>
+    <t xml:space="preserve">Machtübernahme in Polen</t>
   </si>
   <si>
     <t xml:space="preserve"> remove_general_vasily:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Kills §YVasily Blyukher§!</t>
+    <t xml:space="preserve">Ermordung von §Y§Y Wassili Bljuchher §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> purge_dd:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed the §YTrial of Generals§!</t>
+    <t xml:space="preserve">Abschluss des §Y§Y Prozesses gegen die Generäle §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> EAI_diplomacy_ignore_borders_DECISION:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Deny Allied Troops On Our Fronts</t>
+    <t xml:space="preserve">Verweigere den Alliierten Truppen an unseren Fronten</t>
   </si>
   <si>
     <t xml:space="preserve"> EAI_diplomacy_ignore_borders_DECISION_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructs your AI controlled allies to avoid sending troops to borders controlled by you.</t>
+    <t xml:space="preserve">Weist deine KI-gesteuerten Verbündeten an, keine Truppen an die von dir kontrollierten Grenzen zu schicken.</t>
   </si>
   <si>
     <t xml:space="preserve"> EAI_diplomacy_cancel_ignore_borders_DECISION:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Allow Allied Troops On Our Fronts</t>
+    <t xml:space="preserve">Alliierte Truppen an unseren Fronten zulassen</t>
   </si>
   <si>
     <t xml:space="preserve"> EAI_diplomacy_cancel_ignore_borders_DECISION_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Allow your AI controlled allies to send troops to borders controlled by you.</t>
+    <t xml:space="preserve">Erlaubt Ihren KI-gesteuerten Verbündeten, Truppen an die von Ihnen kontrollierten Grenzen zu schicken.</t>
   </si>
   <si>
     <t xml:space="preserve"> CATEGORY_COLLAPSE_DESC:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§GClick§! to collapse</t>
+    <t xml:space="preserve">§G§G Klicken Sie auf §!§! zum Zusammenbruch</t>
   </si>
   <si>
     <t xml:space="preserve"> CATEGORY_EXPAND_DESC:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§GClick§! to expand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DECISION_KEEP_NOTIFIED:1 "§HNotify§!\n\n§GClick§! to §Rnot be notified§! when it is possible to take this decision.\n"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DECISION_NOT_KEEP_NOTIFIED:1 "§HNotify§!\n\n§GClick§! to §Gbe notified§! when it is possible to take this decision.\n"</t>
+    <t xml:space="preserve">§G§G Zum Erweitern §!§! anklicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DECISION_KEEP_NOTIFIED:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§H§H Benachrichtigen Sie §!§! \n\n§G§G Klicken Sie auf §!§! um §R§R nicht zu benachrichtigen §!§! wenn es möglich ist, diese Entscheidung zu treffen.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DECISION_NOT_KEEP_NOTIFIED:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§H§H Benachrichtigen §!§! \n\n§G§G Klicken Sie §!§! bis §G§G benachrichtigt werden §!§! wenn es möglich ist, diese Entscheidung zu treffen.\n</t>
   </si>
   <si>
     <t xml:space="preserve"> TAKE_DECISION_HEADER:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§HTake decision§!\n\n</t>
+    <t xml:space="preserve">§H§H Entscheidung treffen §!§! \n\n</t>
   </si>
   <si>
     <t xml:space="preserve"> DECISION_COST_DESC:0</t>
   </si>
   <si>
-    <t xml:space="preserve">It costs £pol_power $VAL|H0$ to take the decision</t>
+    <t xml:space="preserve">Es kostet £pol_power $VAL|H0$, die Entscheidung zu treffen</t>
   </si>
   <si>
     <t xml:space="preserve"> DECISION_COST_NOT_ENOUGH:0</t>
   </si>
   <si>
-    <t xml:space="preserve">It costs £pol_power $VAL|HR0$ to take the decision</t>
+    <t xml:space="preserve">Es kostet £pol_power $VAL|HR0$ um die Entscheidung zu treffen</t>
   </si>
   <si>
     <t xml:space="preserve"> ON_MAP_DECISION_NAME_DEFAULT:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Find decisions on the map.</t>
+    <t xml:space="preserve">Finden Sie Entscheidungen auf der Karte.</t>
   </si>
   <si>
     <t xml:space="preserve"> ADD_DAYS_TO_DECISION:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Add $DAYS|H$ days to Decision $DECISION|H$</t>
+    <t xml:space="preserve">Füge $DAYS|H$ Tage zur Entscheidung $DECISION|H$ hinzu</t>
   </si>
   <si>
     <t xml:space="preserve"> REMOVE_DAYS_TO_DECISION:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove $DAYS|H$ days from Decision $DECISION|H$</t>
+    <t xml:space="preserve">Entferne $DAYS|H$ Tage von Entscheidung $DECISION|H$</t>
   </si>
   <si>
     <t xml:space="preserve"> ADD_DAYS_TO_MISSION:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Add $DAYS|H$ days to Mission $MISSION|H$</t>
+    <t xml:space="preserve">Hinzufügen von $DAYS|H$-Tagen zu Mission $MISSION|H$</t>
   </si>
   <si>
     <t xml:space="preserve"> REMOVE_DAYS_TO_MISSION:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove $DAYS|H$ days from Mission $MISSION|H$</t>
+    <t xml:space="preserve">Entferne $DAYS|H$ Tage aus Mission $MISSION|H$</t>
   </si>
   <si>
     <t xml:space="preserve"> CLICK_TO_TOGGLE_ALL_CATEGORY_DECISION_TRACKING:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§GClick§! to toggle notification status for all decisions under this category.</t>
+    <t xml:space="preserve">§G§G Klicken Sie auf §!§!, um den Benachrichtigungsstatus für alle Entscheidungen dieser Kategorie umzuschalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> banned_communism_flag:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Has banned communist parties</t>
+    <t xml:space="preserve">Hat kommunistische Parteien verboten</t>
   </si>
   <si>
     <t xml:space="preserve"> FRA_civil_unrest_category:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Civil Unrest</t>
+    <t xml:space="preserve">Zivile Unruhen</t>
   </si>
   <si>
     <t xml:space="preserve"> FRA_communist_civil_war_decision:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Imminent Communist Uprising</t>
+    <t xml:space="preserve">Drohender kommunistischer Aufstand</t>
   </si>
   <si>
     <t xml:space="preserve"> FRA_communist_civil_war_decision_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The rising furore of radical politics is becoming harder to appease - eventually we must confront it one way or another.</t>
+    <t xml:space="preserve">Die wachsende Wut der radikalen Politik lässt sich immer schwerer besänftigen - schließlich müssen wir uns ihr auf die eine oder andere Weise stellen.</t>
   </si>
   <si>
     <t xml:space="preserve"> FRA_fascist_civil_war_decision:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Imminent Fascist Uprising</t>
+    <t xml:space="preserve">Drohender faschistischer Aufstand</t>
   </si>
   <si>
     <t xml:space="preserve"> FRA_fascist_civil_war_decision_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The rising populist sentiment is proving to be an unstoppable tide. There is no avoiding the inevitable.</t>
+    <t xml:space="preserve">Die aufkommende populistische Stimmung erweist sich als eine unaufhaltsame Flut. Das Unvermeidliche ist nicht mehr aufzuhalten.</t>
   </si>
   <si>
     <t xml:space="preserve"> ETH_defeat_italy:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Defeat the Colonizers</t>
+    <t xml:space="preserve">Besiegt die Kolonisatoren</t>
   </si>
   <si>
     <t xml:space="preserve"> ETH_defeat_italy_category:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Second Italian-Ethiopian War</t>
+    <t xml:space="preserve">Der zweite italienisch-äthiopische Krieg</t>
   </si>
   <si>
     <t xml:space="preserve"> ETH_defeat_italy_category_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy once again seeks to see Ethiopia subjugated into a mere colony. We defeated these invaders last time, and we can defeat them again if only we can remove them from our border for good!</t>
+    <t xml:space="preserve">Italien versucht erneut, Äthiopien zu einer bloßen Kolonie zu degradieren. Wir haben diese Eindringlinge das letzte Mal besiegt und wir können sie erneut besiegen, wenn wir sie nur für immer von unserer Grenze entfernen können!</t>
   </si>
   <si>
     <t xml:space="preserve"> seize_some_trains_woo:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Commandeer Civilian Trains</t>
+    <t xml:space="preserve">Zivile Züge kommandieren</t>
   </si>
   <si>
     <t xml:space="preserve"> seize_some_trains_woo_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The merchant rail companies hold sway over our infrastructure. With war looming, we are well within our rights to commandeer equipment for state use.</t>
+    <t xml:space="preserve">Die Handelsbahnen haben die Kontrolle über unsere Infrastruktur. Angesichts des drohenden Krieges ist es unser gutes Recht, Ausrüstung für staatliche Zwecke zu beschlagnahmen.</t>
   </si>
   <si>
     <t xml:space="preserve"> random_general_monarchy_tt:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A random [FROM.GetAdjective] general will gain secret monarchist sympathies.</t>
+    <t xml:space="preserve">Ein beliebiger [FROM.GetAdjective]-General wird geheime monarchistische Sympathien gewinnen.</t>
   </si>
   <si>
     <t xml:space="preserve"> removed_when_cancelled_war_prop:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Propaganda campaigns have been ended.</t>
+    <t xml:space="preserve">Die Propagandakampagnen sind beendet.</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_casualties:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhort Heroism</t>
+    <t xml:space="preserve">Heldentum anmahnen</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_casualties_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Although the death toll rises, our people must be taught that only in battle are heroes forged.</t>
+    <t xml:space="preserve">Auch wenn die Zahl der Todesopfer steigt, muss unserem Volk beigebracht werden, dass Helden nur im Kampf geschmiedet werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_convoys:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Encourage Frugality</t>
+    <t xml:space="preserve">Zur Genügsamkeit ermutigen</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_convoys_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Even civilians can help win the war - by care and attention to our material usage, every gram of steel can be made twice as valuable to the war effort.</t>
+    <t xml:space="preserve">Auch Zivilisten können dazu beitragen, den Krieg zu gewinnen - durch sorgfältigen Umgang mit dem Material kann jedes Gramm Stahl doppelt so wertvoll für die Kriegsanstrengungen gemacht werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_bombing:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolster Spirits</t>
+    <t xml:space="preserve">Den Geist stärken</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_bombing_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Though bombs fall all around us, our brave workers soldier on. It is by this spirit that we will be victorious.</t>
+    <t xml:space="preserve">Obwohl überall um uns herum Bomben fallen, kämpfen unsere tapferen Arbeiter weiter. Durch diesen Geist werden wir siegreich sein.</t>
   </si>
   <si>
     <t xml:space="preserve"> war_support_during_war:0</t>
   </si>
   <si>
-    <t xml:space="preserve">War Support</t>
+    <t xml:space="preserve">Kriegsunterstützung</t>
   </si>
   <si>
     <t xml:space="preserve"> RAJ_population_decisions:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Rural Industrialization</t>
+    <t xml:space="preserve">Ländliche Industrialisierung</t>
   </si>
   <si>
     <t xml:space="preserve"> RAJ_industrialize_state:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Industrialize [FROM.GetName]</t>
+    <t xml:space="preserve">Industrialisieren [FROM.GetName]</t>
   </si>
   <si>
     <t xml:space="preserve"> RAJ_industrialize_state_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our nation is once again on the rise. Although the task is great, bringing rural areas into the modern era is sure to pay dividends in the future.</t>
+    <t xml:space="preserve">Unsere Nation ist wieder auf dem Vormarsch. Obwohl die Aufgabe groß ist, wird es sich in Zukunft sicher auszahlen, die ländlichen Gebiete an die Moderne heranzuführen.</t>
   </si>
   <si>
     <t xml:space="preserve"> RAJ_industrialized_this_state:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§HRural areas already industrialized§!</t>
+    <t xml:space="preserve">§H§H Ländliche Gebiete bereits industrialisiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> RAJ_reduce_agrarian_society_value_tooltip:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§H$RAJ_agrarian_society$§!\nRecruitable Population Factor: [?RAJ_agrarian_society_increment|+=%]\n</t>
+    <t xml:space="preserve">\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nRecruitable Population Factor: [?RAJ_agrarische_Gesellschaft_Zuwachs|+=%]\n</t>
   </si>
   <si>
     <t xml:space="preserve"> RAJ_reduce_agrarian_society_value_2_tooltip:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§H$RAJ_agrarian_society$§!\nResearch and Factory Output Factor: §G+5%§!\n</t>
+    <t xml:space="preserve">\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nForschungs- und Fabrikproduktionsfaktor: §G§G +5% §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> RAJ_reduce_agrarian_society_value_3_tooltip:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§H$RAJ_agrarian_society$§!\nResearch and Factory Output Factor: [?RAJ_agrarian_society_increment|+=%]\n</t>
+    <t xml:space="preserve">\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nForschungs- und Fabrikproduktionsfaktor: [?RAJ_agrarische_Gesellschaft_Zuwachs|+=%]\n</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_radio_industry:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Radio Propaganda</t>
+    <t xml:space="preserve">Radio-Propaganda</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_radio_industry_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Technology has developed to a point where a significant proportion of our population has access to a home radio. State sponsored media is the perfect tool for stoking the war effort in the hearts of our people.</t>
+    <t xml:space="preserve">Die Technologie hat sich so weit entwickelt, dass ein erheblicher Teil unserer Bevölkerung Zugang zu einem Heimradio hat. Staatlich geförderte Medien sind das perfekte Instrument, um die Kriegsanstrengungen in den Herzen unserer Bevölkerung zu schüren.</t>
   </si>
   <si>
     <t xml:space="preserve"> war_propaganda_film_industry:0</t>
@@ -490,25 +499,25 @@
     <t xml:space="preserve"> DOMESTIC_FILM_INDUSTRY:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilize Domestic Film Industry</t>
+    <t xml:space="preserve">Einheimische Filmindustrie nutzen</t>
   </si>
   <si>
     <t xml:space="preserve"> IMPORTED_FILM_INDUSTRY:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Import Allied Propaganda Films</t>
+    <t xml:space="preserve">Verbündete Propagandafilme importieren</t>
   </si>
   <si>
     <t xml:space="preserve"> DOMESTIC_FILM_INDUSTRY_DESC:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The [ROOT.GetAdjective] film industry has developed significantly in the last decade. With a population starved for entertainment, we stand to benefit from a cinematic production designed to stir patriotic sentiment.</t>
+    <t xml:space="preserve">Die [ROOT.GetAdjective] Filmindustrie hat sich im letzten Jahrzehnt stark entwickelt. Bei einer Bevölkerung, die nach Unterhaltung hungert, können wir von einer Filmproduktion profitieren, die patriotische Gefühle weckt.</t>
   </si>
   <si>
     <t xml:space="preserve"> IMPORTED_FILM_INDUSTRY_DESC:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our benefactors and allies are making strategic use of propaganda films. With a little investment, we could screen these productions around our own country in order to stir the war effort amongst our people.</t>
+    <t xml:space="preserve">Unsere Gönner und Verbündeten setzen Propagandafilme strategisch ein. Mit ein wenig Investition könnten wir diese Produktionen in unserem eigenen Land zeigen, um unsere Bevölkerung für den Krieg zu begeistern.</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Eng films for above</t>
@@ -517,37 +526,37 @@
     <t xml:space="preserve"> the_lion_has_wings:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Lion Has Wings (Der geflügelte Löwe)</t>
+    <t xml:space="preserve">Der geflügelte Löwe (The Lion Has Wings)</t>
   </si>
   <si>
     <t xml:space="preserve"> the_battle_of_london:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Battle of London (Die Schlacht von London)</t>
+    <t xml:space="preserve">Die Schlacht von London (The Battle of London)</t>
   </si>
   <si>
     <t xml:space="preserve"> queens_messengers:</t>
   </si>
   <si>
-    <t xml:space="preserve">Queen’s Messengers (Boten der Königin)</t>
+    <t xml:space="preserve">Boten der Königin (Boten der Königin)</t>
   </si>
   <si>
     <t xml:space="preserve"> in_which_we_serve:</t>
   </si>
   <si>
-    <t xml:space="preserve">In Which We Serve (Wo wir dienen)</t>
+    <t xml:space="preserve">Wo wir dienen (Wo wir dienen)</t>
   </si>
   <si>
     <t xml:space="preserve"> the_volunteer:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Volunteer (Der Freiwillige)</t>
+    <t xml:space="preserve">Der Freiwillige (The Volunteer)</t>
   </si>
   <si>
     <t xml:space="preserve"> fires_were_started:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fires Were Started (Gelegte Feuer)</t>
+    <t xml:space="preserve">Gelegte Feuer (Fires Were Started)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Aus</t>
@@ -556,19 +565,19 @@
     <t xml:space="preserve"> men_of_timor:</t>
   </si>
   <si>
-    <t xml:space="preserve">Men of Timor (Männer aus Timor)</t>
+    <t xml:space="preserve">Männer aus Timor (Männer aus Timor)</t>
   </si>
   <si>
     <t xml:space="preserve"> soldiers_without_uniform:</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldiers Without Uniform (Soldaten ohne Uniform)</t>
+    <t xml:space="preserve">Soldaten ohne Uniform (Soldaten ohne Uniform)</t>
   </si>
   <si>
     <t xml:space="preserve"> mid_east:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mid East (Mittlerer Osten)</t>
+    <t xml:space="preserve">Mittlerer Osten (Mid East)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Can</t>
@@ -577,37 +586,37 @@
     <t xml:space="preserve"> atlantic_patrol:</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlantic Patrol (Atlantikpatroullie)</t>
+    <t xml:space="preserve">Atlantische Patrouille (Atlantikpatroullie)</t>
   </si>
   <si>
     <t xml:space="preserve"> front_of_steel:</t>
   </si>
   <si>
-    <t xml:space="preserve">Front of Steel (Stahlfront)</t>
+    <t xml:space="preserve">Front aus Stahl (Stahlfront)</t>
   </si>
   <si>
     <t xml:space="preserve"> home_front:</t>
   </si>
   <si>
-    <t xml:space="preserve">Home Front (Heimatfront)</t>
+    <t xml:space="preserve">Heimatfront (Heimatfront)</t>
   </si>
   <si>
     <t xml:space="preserve"> wings_of_youth:</t>
   </si>
   <si>
-    <t xml:space="preserve">Wings of Youth (Jugendgeschwader)</t>
+    <t xml:space="preserve">Jugendgeschwader (Wings of Youth)</t>
   </si>
   <si>
     <t xml:space="preserve"> all_out_for_war:</t>
   </si>
   <si>
-    <t xml:space="preserve">All Out for War (Totaler Krieg)</t>
+    <t xml:space="preserve">Totaler Krieg (All Out for War)</t>
   </si>
   <si>
     <t xml:space="preserve"> banshees_over_canada:</t>
   </si>
   <si>
-    <t xml:space="preserve">Banshees Over Canada (Die Todesengel von Kanada)</t>
+    <t xml:space="preserve">Banshees über Kanada (Die Todesengel von Kanada)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##RAJ_agrarian_society$§</t>
@@ -616,25 +625,25 @@
     <t xml:space="preserve"> the_planes_of_hindustan:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Planes of Hindustan (Die Flugzeuge von Hindustan)</t>
+    <t xml:space="preserve">Die Flugzeuge von Hindustan (Die Flugzeuge von Hindustan)</t>
   </si>
   <si>
     <t xml:space="preserve"> road_to_victory:</t>
   </si>
   <si>
-    <t xml:space="preserve">Road to Victory (Der Weg zum Sieg)</t>
+    <t xml:space="preserve">Straße zum Sieg (Der Weg zum Sieg)</t>
   </si>
   <si>
     <t xml:space="preserve"> hes_in_the_navy:</t>
   </si>
   <si>
-    <t xml:space="preserve">He’s in the Navy (Er ist bei der Marine)</t>
+    <t xml:space="preserve">Er ist bei der Marine (He's in the Navy)</t>
   </si>
   <si>
     <t xml:space="preserve"> in_self_defence:</t>
   </si>
   <si>
-    <t xml:space="preserve">In Self Defence (Selbstverteidigung)</t>
+    <t xml:space="preserve">In Selbstverteidigung (Selbstverteidigung)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##USA</t>
@@ -643,7 +652,7 @@
     <t xml:space="preserve"> women_in_defense:</t>
   </si>
   <si>
-    <t xml:space="preserve">Women in Defense (Frauen für die Verteidigung)</t>
+    <t xml:space="preserve">Frauen für die Verteidigung (Women in Defense)</t>
   </si>
   <si>
     <t xml:space="preserve"> winning_your_wings:</t>
@@ -655,49 +664,49 @@
     <t xml:space="preserve"> the_world_at_war:</t>
   </si>
   <si>
-    <t xml:space="preserve">The World at War (Die Welt im Krieg)</t>
+    <t xml:space="preserve">Die Welt im Krieg (The World at War)</t>
   </si>
   <si>
     <t xml:space="preserve"> mission_accomplished:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mission Accomplished (Mission erfolgreich)</t>
+    <t xml:space="preserve">Mission erfolgreich (Mission Accomplished)</t>
   </si>
   <si>
     <t xml:space="preserve"> the_fleet_that_came_to_stay:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Fleet That Came to Stay (Die Flotte, die blieb)</t>
+    <t xml:space="preserve">Die Flotte, die blieb (The Fleet That Came to Stay)</t>
   </si>
   <si>
     <t xml:space="preserve"> fury_in_the_pacific:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fury in the Pacific (Schlacht im Pazifik)</t>
+    <t xml:space="preserve">Wut im Pazifik (Schlacht im Pazifik)</t>
   </si>
   <si>
     <t xml:space="preserve"> fury_in_the_europe:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Fury</t>
+    <t xml:space="preserve">Wut</t>
   </si>
   <si>
     <t xml:space="preserve"> its_your_war_too:</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s Your War Too (Es ist auch dein Krieg)</t>
+    <t xml:space="preserve">Es ist auch dein Krieg (Es ist auch dein Krieg)</t>
   </si>
   <si>
     <t xml:space="preserve"> time_in_munich:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Once Upon a Time in Munich</t>
+    <t xml:space="preserve">Es war einmal in München</t>
   </si>
   <si>
     <t xml:space="preserve"> french_schoolgirl:0</t>
   </si>
   <si>
-    <t xml:space="preserve">French Schoolgirls</t>
+    <t xml:space="preserve">Französische Schulmädchen</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Holland/Belgium</t>
@@ -712,19 +721,19 @@
     <t xml:space="preserve"> high_stakes_in_the_east:</t>
   </si>
   <si>
-    <t xml:space="preserve">High Stakes in the East (Hohe Einsätze im Osten)</t>
+    <t xml:space="preserve">Hohe Einsätze im Osten (High Stakes in the East)</t>
   </si>
   <si>
     <t xml:space="preserve"> glorious_colours:</t>
   </si>
   <si>
-    <t xml:space="preserve">Glorious Colours (Glorreiche Farben)</t>
+    <t xml:space="preserve">Glorreiche Farben (Glorreiche Farben)</t>
   </si>
   <si>
     <t xml:space="preserve"> litte_belgium:</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Belgium (Klein-Belgien)</t>
+    <t xml:space="preserve">Klein-Belgien (Klein-Belgien)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Sov</t>
@@ -733,37 +742,37 @@
     <t xml:space="preserve"> for_the_front:</t>
   </si>
   <si>
-    <t xml:space="preserve">For the Front (An der Front)</t>
+    <t xml:space="preserve">Für die Front (An der Front)</t>
   </si>
   <si>
     <t xml:space="preserve"> the_peoples_avengers:</t>
   </si>
   <si>
-    <t xml:space="preserve">The People’s Avengers (Rache des Volkes)</t>
+    <t xml:space="preserve">Die Rache des Volkes (Rache des Volkes)</t>
   </si>
   <si>
     <t xml:space="preserve"> day_of_war:</t>
   </si>
   <si>
-    <t xml:space="preserve">Day of War (Tag des Krieges)</t>
+    <t xml:space="preserve">Tag des Krieges (Day of War)</t>
   </si>
   <si>
     <t xml:space="preserve"> film_motherland:</t>
   </si>
   <si>
-    <t xml:space="preserve">Motherland (Mutterland)</t>
+    <t xml:space="preserve">Mutterland (Mutterland)</t>
   </si>
   <si>
     <t xml:space="preserve"> sons_of_the_motherland:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sons of the Motherland (Söhne des Mutterlands)</t>
+    <t xml:space="preserve">Söhne des Mutterlandes (Sons of the Motherland)</t>
   </si>
   <si>
     <t xml:space="preserve"> moscow_strikes_back:</t>
   </si>
   <si>
-    <t xml:space="preserve">Moscow Strikes Back (Moskau schlägt zurück)</t>
+    <t xml:space="preserve">Moskau schlägt zurück (Moscow Strikes Back)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Ger</t>
@@ -814,7 +823,7 @@
     <t xml:space="preserve"> panorama:</t>
   </si>
   <si>
-    <t xml:space="preserve">Panorama</t>
+    <t xml:space="preserve">Rundblick</t>
   </si>
   <si>
     <t xml:space="preserve"> kolberg:</t>
@@ -841,25 +850,25 @@
     <t xml:space="preserve"> vow_in_the_desert:</t>
   </si>
   <si>
-    <t xml:space="preserve">Vow in the Desert (Schwur der Wüste)</t>
+    <t xml:space="preserve">Gelübde in der Wüste (Schwur der Wüste)</t>
   </si>
   <si>
     <t xml:space="preserve"> song_of_the_white_orchid:</t>
   </si>
   <si>
-    <t xml:space="preserve">Song of the White Orchid (Das Lied der Weißen Orchidee)</t>
+    <t xml:space="preserve">Das Lied der Weißen Orchidee (Song of the White Orchid)</t>
   </si>
   <si>
     <t xml:space="preserve"> five_scouts:</t>
   </si>
   <si>
-    <t xml:space="preserve">Five Scouts (Fünf Aufklärer)</t>
+    <t xml:space="preserve">Fünf Aufklärer (Five Scouts)</t>
   </si>
   <si>
     <t xml:space="preserve"> fire_on_that_flag:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fire on That Flag! (Feuert auf die Flagge!)</t>
+    <t xml:space="preserve">Feuer auf die Flagge! (Feuert auf die Flagge!)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Ita (hard to find it seems)</t>
@@ -880,7 +889,7 @@
     <t xml:space="preserve"> the_man_with_the_cross:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Man With the Cross (Der Mann mit dem Kreuz)</t>
+    <t xml:space="preserve">Der Mann mit dem Kreuz (The Man With the Cross)</t>
   </si>
   <si>
     <t xml:space="preserve"> ##Generic</t>
@@ -889,37 +898,37 @@
     <t xml:space="preserve"> our_war:</t>
   </si>
   <si>
-    <t xml:space="preserve">Our War (Unser Krieg)</t>
+    <t xml:space="preserve">Unser Krieg (Our War)</t>
   </si>
   <si>
     <t xml:space="preserve"> the_war_for_our_existence:</t>
   </si>
   <si>
-    <t xml:space="preserve">The War for our Existence (Überlebenskrieg)</t>
+    <t xml:space="preserve">Der Krieg um unsere Existenz (Überlebenskrieg)</t>
   </si>
   <si>
     <t xml:space="preserve"> war_in_the_skies:</t>
   </si>
   <si>
-    <t xml:space="preserve">War in the Skies (Krieg am Himmel)</t>
+    <t xml:space="preserve">Krieg am Himmel (War in the Skies)</t>
   </si>
   <si>
     <t xml:space="preserve"> flags_raised:</t>
   </si>
   <si>
-    <t xml:space="preserve">Flags Raised (Gehisste Flaggen)</t>
+    <t xml:space="preserve">Die gehissten Fahnen (Flaggen)</t>
   </si>
   <si>
     <t xml:space="preserve"> the_day_of_sacrifice:</t>
   </si>
   <si>
-    <t xml:space="preserve">The Day of Sacrifice (Tag der Opferung)</t>
+    <t xml:space="preserve">Der Tag der Opferung (Tag der Opferung)</t>
   </si>
   <si>
     <t xml:space="preserve"> blood_and_toil:</t>
   </si>
   <si>
-    <t xml:space="preserve">Blood and Toil (Blut und Schweiß)</t>
+    <t xml:space="preserve">Blut und Schweiß (Blood and Toil)</t>
   </si>
   <si>
     <t xml:space="preserve"> #generic cat films</t>
@@ -928,19 +937,19 @@
     <t xml:space="preserve"> cats_in_uniforms:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Cats in Uniforms</t>
+    <t xml:space="preserve">Katzen in Uniformen</t>
   </si>
   <si>
     <t xml:space="preserve"> cats_on_mission:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Cats on a Mission</t>
+    <t xml:space="preserve">Katzen im Einsatz (Cats on a Mission)</t>
   </si>
   <si>
     <t xml:space="preserve"> cats_aboard:0</t>
   </si>
   <si>
-    <t xml:space="preserve">All cats Aboard!</t>
+    <t xml:space="preserve">Alle Katzen an Bord!</t>
   </si>
   <si>
     <t xml:space="preserve"> ##</t>
@@ -955,7 +964,7 @@
     <t xml:space="preserve"> flying_witches:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Flying Witches</t>
+    <t xml:space="preserve">Fliegende Hexen</t>
   </si>
   <si>
     <t xml:space="preserve"> ############### Foreign MIOs ###############</t>
@@ -964,7 +973,7 @@
     <t xml:space="preserve"> available_mio_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Als §Ymilitärisch-industrielle Organisation§! §Gverfügbar§!:	</t>
+    <t xml:space="preserve">Als §Y§Y militärisch-industrielle Organisation §!§!  §G§G verfügbar §!§! : </t>
   </si>
   <si>
     <t xml:space="preserve"> foreign_mio_decisions_category:</t>
@@ -976,169 +985,169 @@
     <t xml:space="preserve"> invite_GER_henschel_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$GER_henschel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $GER_henschel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_SOV_okmo_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$SOV_okmo_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $SOV_okmo_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ENG_vickers_armstrong_eng_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ENG_vickers_armstrong_eng_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ENG_vickers_armstrong_eng_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ITA_fiat_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ITA_fiat_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ITA_fiat_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_SOV_nevskoye_design_bureau_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$SOV_nevskoye_design_bureau_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $SOV_nevskoye_design_bureau_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ENG_yarrow_shipbuilders_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ENG_yarrow_shipbuilders_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ENG_yarrow_shipbuilders_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ITA_crda_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ITA_crda_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ITA_crda_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_GER_heinkel_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$GER_heinkel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $GER_heinkel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ENG_fairey_aviation_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ENG_fairey_aviation_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ENG_fairey_aviation_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_SOV_ilyushin_design_bureau_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$SOV_ilyushin_design_bureau_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $SOV_ilyushin_design_bureau_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_SOV_gaz_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$SOV_gaz_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $SOV_gaz_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_GER_opel_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$GER_opel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $GER_opel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ENG_vauxhall_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ENG_vauxhall_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ENG_vauxhall_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ITA_lancia_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ITA_lancia_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ITA_lancia_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_CZE_skoda_artillery_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$CZE_skoda_artillery_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $CZE_skoda_artillery_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_FRA_mas_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$FRA_mas_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $FRA_mas_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_JAP_nissan_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$JAP_nissan_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $JAP_nissan_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_CZE_ckd_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$CZE_ckd_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $CZE_ckd_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_CZE_skoda_armor_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$CZE_skoda_armor_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $CZE_skoda_armor_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_CZE_avia_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$CZE_avia_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $CZE_avia_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_FRA_renault_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$FRA_renault_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $FRA_renault_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_JAP_maizuru_naval_arsenal_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$JAP_maizuru_naval_arsenal_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $JAP_maizuru_naval_arsenal_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_JAP_mitsubishi_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$JAP_mitsubishi_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $JAP_mitsubishi_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_FRA_bloch_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$FRA_bloch_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $FRA_bloch_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_GER_junkers_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$GER_junkers_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $GER_junkers_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_GER_mauser_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$GER_mauser_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $GER_mauser_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invite_ENG_john_brown_organization:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$ENG_john_brown_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen</t>
+    <t xml:space="preserve">§Y§Y $ENG_john_brown_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen</t>
   </si>
   <si>
     <t xml:space="preserve"> invites_mio_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§YLädt eine ausländische militärisch-industrielle Organisation in unser Land ein§!:</t>
+    <t xml:space="preserve">\n§Y§Y Lädt eine ausländische militärisch-industrielle Organisation in unserem Land ein §!§! :</t>
   </si>
   <si>
     <t xml:space="preserve"> ############### Generic Purchase Ship ################</t>
@@ -1165,7 +1174,7 @@
     <t xml:space="preserve"> purchase_ships_sov:</t>
   </si>
   <si>
-    <t xml:space="preserve">Alte [SOV.GetFlag][SOV.GetAdjective]e Schlachtschiffe kaufen</t>
+    <t xml:space="preserve">Alte [SOV.GetFlag][SOV.GetAdjective][SOV.GetAdjective]e Schlachtschiffe kaufen</t>
   </si>
   <si>
     <t xml:space="preserve"> purchase_ships_ger:</t>
@@ -1225,7 +1234,7 @@
     <t xml:space="preserve"> add_potential_special_forces_tree_tt:</t>
   </si>
   <si>
-    <t xml:space="preserve">Fügt den Spezialeinheiten §H1§! §HZweigspezialisierung§! hinzu</t>
+    <t xml:space="preserve">Fügt den Spezialeinheiten §H§H 1 §!§!  §H§H Zweigspezialisierung §!§! hinzu</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1454,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1510,11 +1519,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> POPUP_NEWS: "News-Popup"</v>
+        <v> POPUP_NEWS: "Nachrichten-Popup"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> POPUP_NEWS: "News-Popup"</v>
+        <v> POPUP_NEWS: "Nachrichten-Popup"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,11 +1551,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> NEWS_POPUP_CHECKBOX_TOOLTIP:0 "§GClick§! to toggle News notifications."</v>
+        <v> NEWS_POPUP_CHECKBOX_TOOLTIP:0 "§G§G Klicken Sie auf §!§!, um die Nachrichten-Benachrichtigungen umzuschalten."</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> NEWS_POPUP_CHECKBOX_TOOLTIP:0 "§GClick§! to toggle News notifications."</v>
+        <v> NEWS_POPUP_CHECKBOX_TOOLTIP:0 "§G§G Klicken Sie auf §!§!, um die Nachrichten-Benachrichtigungen umzuschalten."</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,11 +1567,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§GClick§! to toggle Event notifications."</v>
+        <v> EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§G§G Klicken Sie auf §!§!, um Ereignis-Benachrichtigungen umzuschalten."</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§GClick§! to toggle Event notifications."</v>
+        <v> EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§G§G Klicken Sie auf §!§!, um Ereignis-Benachrichtigungen umzuschalten."</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,11 +1583,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> MINOR_EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§GClick§! to toggle minor event notifications, such as Ace Pilot events."</v>
+        <v> MINOR_EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§G§G Klicken Sie auf §!§!, um kleinere Ereignis-Benachrichtigungen, wie z.B. Ace Pilot-Ereignisse, einzuschalten."</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> MINOR_EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§GClick§! to toggle minor event notifications, such as Ace Pilot events."</v>
+        <v> MINOR_EVENT_POPUP_CHECKBOX_TOOLTIP:0 "§G§G Klicken Sie auf §!§!, um kleinere Ereignis-Benachrichtigungen, wie z.B. Ace Pilot-Ereignisse, einzuschalten."</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,11 +1599,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> POPUP_MINOR_EVENTS:0 "Minor Popup"</v>
+        <v> POPUP_MINOR_EVENTS:0 "Kleines Popup"</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> POPUP_MINOR_EVENTS:0 "Minor Popup"</v>
+        <v> POPUP_MINOR_EVENTS:0 "Kleines Popup"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,11 +1628,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> defend_another_country_TT:0 "The country is not in a state to defend another country now. This could be caused by having too few divisions to garrison its states, having war near its homearea or just an overall low division count.\n\n"</v>
+        <v> defend_another_country_TT:0 "Das Land ist im Moment nicht in der Lage, ein anderes Land zu verteidigen. Dies kann daran liegen, dass es zu wenige Divisionen hat, um seine Staaten zu garnisonieren, dass in der Nähe seines Heimatgebiets Krieg herrscht oder dass die Anzahl der Divisionen insgesamt zu niedrig ist."</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> defend_another_country_TT:0 "The country is not in a state to defend another country now. This could be caused by having too few divisions to garrison its states, having war near its homearea or just an overall low division count.\n\n"</v>
+        <v> defend_another_country_TT:0 "Das Land ist im Moment nicht in der Lage, ein anderes Land zu verteidigen. Dies kann daran liegen, dass es zu wenige Divisionen hat, um seine Staaten zu garnisonieren, dass in der Nähe seines Heimatgebiets Krieg herrscht oder dass die Anzahl der Divisionen insgesamt zu niedrig ist."</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,11 +1644,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> dont_defend_FROM_TT:0 "will not defend §Y[From.GetAdjective]§! borders."</v>
+        <v> dont_defend_FROM_TT:0 "wird die Grenzen von §Y§Y [From.GetAdjective] §!§! nicht verteidigen."</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> dont_defend_FROM_TT:0 "will not defend §Y[From.GetAdjective]§! borders."</v>
+        <v> dont_defend_FROM_TT:0 "wird die Grenzen von §Y§Y [From.GetAdjective] §!§! nicht verteidigen."</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,11 +1673,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> coordinate_war_effort:0 "Coordinate the War Effort"</v>
+        <v> coordinate_war_effort:0 "Koordiniere die Kriegsanstrengungen"</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> coordinate_war_effort:0 "Coordinate the War Effort"</v>
+        <v> coordinate_war_effort:0 "Koordiniere die Kriegsanstrengungen"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,11 +1718,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> EAI_diplomacy_DECISIONS:0 "Coordinate Military Efforts"</v>
+        <v> EAI_diplomacy_DECISIONS:0 "Militärische Anstrengungen koordinieren"</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> EAI_diplomacy_DECISIONS:0 "Coordinate Military Efforts"</v>
+        <v> EAI_diplomacy_DECISIONS:0 "Militärische Anstrengungen koordinieren"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,11 +1734,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> EAI_diplomacy_DECISIONS_desc:0 "Contact the high command of other AI controlled countries to coordinate military efforts."</v>
+        <v> EAI_diplomacy_DECISIONS_desc:0 "Kontaktieren Sie das Oberkommando anderer KI-kontrollierter Länder, um die militärischen Anstrengungen zu koordinieren."</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> EAI_diplomacy_DECISIONS_desc:0 "Contact the high command of other AI controlled countries to coordinate military efforts."</v>
+        <v> EAI_diplomacy_DECISIONS_desc:0 "Kontaktieren Sie das Oberkommando anderer KI-kontrollierter Länder, um die militärischen Anstrengungen zu koordinieren."</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,11 +1763,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> field_exercise_sov:0 "Conduct Field Exercises"</v>
+        <v> field_exercise_sov:0 "Führen Sie Feldübungen durch"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> field_exercise_sov:0 "Conduct Field Exercises"</v>
+        <v> field_exercise_sov:0 "Führen Sie Feldübungen durch"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,11 +1779,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> field_exercise_sov_desc:0 "Japan is at our door, Germany is beginning to group up troops at the border, it seems like our army isn't ready for war."</v>
+        <v> field_exercise_sov_desc:0 "Japan steht vor unserer Tür, Deutschland fängt an, Truppen an der Grenze aufzustellen, es scheint, als wäre unsere Armee nicht bereit für den Krieg."</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> field_exercise_sov_desc:0 "Japan is at our door, Germany is beginning to group up troops at the border, it seems like our army isn't ready for war."</v>
+        <v> field_exercise_sov_desc:0 "Japan steht vor unserer Tür, Deutschland fängt an, Truppen an der Grenze aufzustellen, es scheint, als wäre unsere Armee nicht bereit für den Krieg."</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,11 +1795,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> red_navy_buildup:0 "Buildup the Red Navy"</v>
+        <v> red_navy_buildup:0 "Bauen Sie die Rote Marine auf"</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> red_navy_buildup:0 "Buildup the Red Navy"</v>
+        <v> red_navy_buildup:0 "Bauen Sie die Rote Marine auf"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,11 +1811,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> red_navy_buildup_desc:0 "Building up the Red Navy will enable us to destroy the enemy in the Baltic!"</v>
+        <v> red_navy_buildup_desc:0 "Der Aufbau der Roten Marine wird uns in die Lage versetzen, den Feind in der Ostsee zu vernichten!"</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> red_navy_buildup_desc:0 "Building up the Red Navy will enable us to destroy the enemy in the Baltic!"</v>
+        <v> red_navy_buildup_desc:0 "Der Aufbau der Roten Marine wird uns in die Lage versetzen, den Feind in der Ostsee zu vernichten!"</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,11 +1827,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> cp_cost50:0 "£command_power §Y50§!"</v>
+        <v> cp_cost50:0 "£command_power §Y§Y 50 §!§! "</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> cp_cost50:0 "£command_power §Y50§!"</v>
+        <v> cp_cost50:0 "£command_power §Y§Y 50 §!§! "</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,11 +1843,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> cp_cost50_blocked:0 "£command_power §Y50§!"</v>
+        <v> cp_cost50_blocked:0 "£command_power §Y§Y 50 §!§! "</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> cp_cost50_blocked:0 "£command_power §Y50§!"</v>
+        <v> cp_cost50_blocked:0 "£command_power §Y§Y 50 §!§! "</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,11 +1859,11 @@
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> cp_cost15:0 "£command_power §Y15§!"</v>
+        <v> cp_cost15:0 "£command_power §Y§Y 15 §!§! "</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> cp_cost15:0 "£command_power §Y15§!"</v>
+        <v> cp_cost15:0 "£command_power §Y§Y 15 §!§! "</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,15 +1871,15 @@
         <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> cp_cost15_blocked:0 "£command_power §Y15§!"</v>
+        <v> cp_cost15_blocked:0 "Befehlsgewalt §Y§Y 15 §!§! "</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> cp_cost15_blocked:0 "£command_power §Y15§!"</v>
+        <v> cp_cost15_blocked:0 "Befehlsgewalt §Y§Y 15 §!§! "</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,210 +1897,210 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> officer_purges:0 "Reorganization of the Military"</v>
+        <v> officer_purges:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v> officer_purges:0 "Reorganization of the Military"</v>
+        <v> officer_purges:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> officer_purges2:0 "Reorganization of the Military"</v>
+        <v> officer_purges2:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> officer_purges2:0 "Reorganization of the Military"</v>
+        <v> officer_purges2:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> officer_purges3:0 "Reorganization of the Military"</v>
+        <v> officer_purges3:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> officer_purges3:0 "Reorganization of the Military"</v>
+        <v> officer_purges3:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> officer_purges4:0 "Reorganization of the Military"</v>
+        <v> officer_purges4:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> officer_purges4:0 "Reorganization of the Military"</v>
+        <v> officer_purges4:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> officer_purges5:0 "Reorganization of the Military"</v>
+        <v> officer_purges5:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> officer_purges5:0 "Reorganization of the Military"</v>
+        <v> officer_purges5:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> officer_purges6:0 "Reorganization of the Military"</v>
+        <v> officer_purges6:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> officer_purges6:0 "Reorganization of the Military"</v>
+        <v> officer_purges6:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> officer_purges7:0 "Reorganization of the Military"</v>
+        <v> officer_purges7:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> officer_purges7:0 "Reorganization of the Military"</v>
+        <v> officer_purges7:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> officer_purges8:0 "Reorganization of the Military"</v>
+        <v> officer_purges8:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> officer_purges8:0 "Reorganization of the Military"</v>
+        <v> officer_purges8:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> officer_purges9:0 "Reorganization of the Military"</v>
+        <v> officer_purges9:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> officer_purges9:0 "Reorganization of the Military"</v>
+        <v> officer_purges9:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> officer_purges10:0 "Reorganization of the Military"</v>
+        <v> officer_purges10:0 "Reorganisation des Militärs"</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> officer_purges10:0 "Reorganization of the Military"</v>
+        <v> officer_purges10:0 "Reorganisation des Militärs"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> poland_war_soviet:0 "Takeover of Poland"</v>
+        <v> poland_war_soviet:0 "Machtübernahme in Polen"</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> poland_war_soviet:0 "Takeover of Poland"</v>
+        <v> poland_war_soviet:0 "Machtübernahme in Polen"</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> remove_general_vasily:0 "Kills §YVasily Blyukher§!"</v>
+        <v> remove_general_vasily:0 "Ermordung von §Y§Y Wassili Bljuchher §!§! "</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> remove_general_vasily:0 "Kills §YVasily Blyukher§!"</v>
+        <v> remove_general_vasily:0 "Ermordung von §Y§Y Wassili Bljuchher §!§! "</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> purge_dd:0 "Completed the §YTrial of Generals§!"</v>
+        <v> purge_dd:0 "Abschluss des §Y§Y Prozesses gegen die Generäle §!§! "</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> purge_dd:0 "Completed the §YTrial of Generals§!"</v>
+        <v> purge_dd:0 "Abschluss des §Y§Y Prozesses gegen die Generäle §!§! "</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,740 +2131,746 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> EAI_diplomacy_ignore_borders_DECISION:0 "Deny Allied Troops On Our Fronts"</v>
+        <v> EAI_diplomacy_ignore_borders_DECISION:0 "Verweigere den Alliierten Truppen an unseren Fronten"</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v> EAI_diplomacy_ignore_borders_DECISION:0 "Deny Allied Troops On Our Fronts"</v>
+        <v> EAI_diplomacy_ignore_borders_DECISION:0 "Verweigere den Alliierten Truppen an unseren Fronten"</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> EAI_diplomacy_ignore_borders_DECISION_desc:0 "Instructs your AI controlled allies to avoid sending troops to borders controlled by you."</v>
+        <v> EAI_diplomacy_ignore_borders_DECISION_desc:0 "Weist deine KI-gesteuerten Verbündeten an, keine Truppen an die von dir kontrollierten Grenzen zu schicken."</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> EAI_diplomacy_ignore_borders_DECISION_desc:0 "Instructs your AI controlled allies to avoid sending troops to borders controlled by you."</v>
+        <v> EAI_diplomacy_ignore_borders_DECISION_desc:0 "Weist deine KI-gesteuerten Verbündeten an, keine Truppen an die von dir kontrollierten Grenzen zu schicken."</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> EAI_diplomacy_cancel_ignore_borders_DECISION:0 "Allow Allied Troops On Our Fronts"</v>
+        <v> EAI_diplomacy_cancel_ignore_borders_DECISION:0 "Alliierte Truppen an unseren Fronten zulassen"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> EAI_diplomacy_cancel_ignore_borders_DECISION:0 "Allow Allied Troops On Our Fronts"</v>
+        <v> EAI_diplomacy_cancel_ignore_borders_DECISION:0 "Alliierte Truppen an unseren Fronten zulassen"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> EAI_diplomacy_cancel_ignore_borders_DECISION_desc:0 "Allow your AI controlled allies to send troops to borders controlled by you."</v>
+        <v> EAI_diplomacy_cancel_ignore_borders_DECISION_desc:0 "Erlaubt Ihren KI-gesteuerten Verbündeten, Truppen an die von Ihnen kontrollierten Grenzen zu schicken."</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> EAI_diplomacy_cancel_ignore_borders_DECISION_desc:0 "Allow your AI controlled allies to send troops to borders controlled by you."</v>
+        <v> EAI_diplomacy_cancel_ignore_borders_DECISION_desc:0 "Erlaubt Ihren KI-gesteuerten Verbündeten, Truppen an die von Ihnen kontrollierten Grenzen zu schicken."</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> CATEGORY_COLLAPSE_DESC:0 "§GClick§! to collapse"</v>
+        <v> CATEGORY_COLLAPSE_DESC:0 "§G§G Klicken Sie auf §!§! zum Zusammenbruch"</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> CATEGORY_COLLAPSE_DESC:0 "§GClick§! to collapse"</v>
+        <v> CATEGORY_COLLAPSE_DESC:0 "§G§G Klicken Sie auf §!§! zum Zusammenbruch"</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> CATEGORY_EXPAND_DESC:0 "§GClick§! to expand"</v>
+        <v> CATEGORY_EXPAND_DESC:0 "§G§G Zum Erweitern §!§! anklicken"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> CATEGORY_EXPAND_DESC:0 "§GClick§! to expand"</v>
+        <v> CATEGORY_EXPAND_DESC:0 "§G§G Zum Erweitern §!§! anklicken"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> DECISION_KEEP_NOTIFIED:1 "§HNotify§!\n\n§GClick§! to §Rnot be notified§! when it is possible to take this decision.\n" ""</v>
+        <v> DECISION_KEEP_NOTIFIED:1 "§H§H Benachrichtigen Sie §!§! \n\n§G§G Klicken Sie auf §!§! um §R§R nicht zu benachrichtigen §!§! wenn es möglich ist, diese Entscheidung zu treffen.\n"</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> DECISION_KEEP_NOTIFIED:1 "§HNotify§!\n\n§GClick§! to §Rnot be notified§! when it is possible to take this decision.\n" ""</v>
+        <v> DECISION_KEEP_NOTIFIED:1 "§H§H Benachrichtigen Sie §!§! \n\n§G§G Klicken Sie auf §!§! um §R§R nicht zu benachrichtigen §!§! wenn es möglich ist, diese Entscheidung zu treffen.\n"</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> DECISION_NOT_KEEP_NOTIFIED:1 "§HNotify§!\n\n§GClick§! to §Gbe notified§! when it is possible to take this decision.\n" ""</v>
+        <v> DECISION_NOT_KEEP_NOTIFIED:1 "§H§H Benachrichtigen §!§! \n\n§G§G Klicken Sie §!§! bis §G§G benachrichtigt werden §!§! wenn es möglich ist, diese Entscheidung zu treffen.\n"</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> DECISION_NOT_KEEP_NOTIFIED:1 "§HNotify§!\n\n§GClick§! to §Gbe notified§! when it is possible to take this decision.\n" ""</v>
+        <v> DECISION_NOT_KEEP_NOTIFIED:1 "§H§H Benachrichtigen §!§! \n\n§G§G Klicken Sie §!§! bis §G§G benachrichtigt werden §!§! wenn es möglich ist, diese Entscheidung zu treffen.\n"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> TAKE_DECISION_HEADER:0 "§HTake decision§!\n\n"</v>
+        <v> TAKE_DECISION_HEADER:0 "§H§H Entscheidung treffen §!§! \n\n"</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> TAKE_DECISION_HEADER:0 "§HTake decision§!\n\n"</v>
+        <v> TAKE_DECISION_HEADER:0 "§H§H Entscheidung treffen §!§! \n\n"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> DECISION_COST_DESC:0 "It costs £pol_power $VAL|H0$ to take the decision"</v>
+        <v> DECISION_COST_DESC:0 "Es kostet £pol_power $VAL|H0$, die Entscheidung zu treffen"</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> DECISION_COST_DESC:0 "It costs £pol_power $VAL|H0$ to take the decision"</v>
+        <v> DECISION_COST_DESC:0 "Es kostet £pol_power $VAL|H0$, die Entscheidung zu treffen"</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> DECISION_COST_NOT_ENOUGH:0 "It costs £pol_power $VAL|HR0$ to take the decision"</v>
+        <v> DECISION_COST_NOT_ENOUGH:0 "Es kostet £pol_power $VAL|HR0$ um die Entscheidung zu treffen"</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> DECISION_COST_NOT_ENOUGH:0 "It costs £pol_power $VAL|HR0$ to take the decision"</v>
+        <v> DECISION_COST_NOT_ENOUGH:0 "Es kostet £pol_power $VAL|HR0$ um die Entscheidung zu treffen"</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> ON_MAP_DECISION_NAME_DEFAULT:0 "Find decisions on the map."</v>
+        <v> ON_MAP_DECISION_NAME_DEFAULT:0 "Finden Sie Entscheidungen auf der Karte."</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> ON_MAP_DECISION_NAME_DEFAULT:0 "Find decisions on the map."</v>
+        <v> ON_MAP_DECISION_NAME_DEFAULT:0 "Finden Sie Entscheidungen auf der Karte."</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> ADD_DAYS_TO_DECISION:0 "Add $DAYS|H$ days to Decision $DECISION|H$"</v>
+        <v> ADD_DAYS_TO_DECISION:0 "Füge $DAYS|H$ Tage zur Entscheidung $DECISION|H$ hinzu"</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v> ADD_DAYS_TO_DECISION:0 "Add $DAYS|H$ days to Decision $DECISION|H$"</v>
+        <v> ADD_DAYS_TO_DECISION:0 "Füge $DAYS|H$ Tage zur Entscheidung $DECISION|H$ hinzu"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v> REMOVE_DAYS_TO_DECISION:0 "Remove $DAYS|H$ days from Decision $DECISION|H$"</v>
+        <v> REMOVE_DAYS_TO_DECISION:0 "Entferne $DAYS|H$ Tage von Entscheidung $DECISION|H$"</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
-        <v> REMOVE_DAYS_TO_DECISION:0 "Remove $DAYS|H$ days from Decision $DECISION|H$"</v>
+        <v> REMOVE_DAYS_TO_DECISION:0 "Entferne $DAYS|H$ Tage von Entscheidung $DECISION|H$"</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> ADD_DAYS_TO_MISSION:0 "Add $DAYS|H$ days to Mission $MISSION|H$"</v>
+        <v> ADD_DAYS_TO_MISSION:0 "Hinzufügen von $DAYS|H$-Tagen zu Mission $MISSION|H$"</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> ADD_DAYS_TO_MISSION:0 "Add $DAYS|H$ days to Mission $MISSION|H$"</v>
+        <v> ADD_DAYS_TO_MISSION:0 "Hinzufügen von $DAYS|H$-Tagen zu Mission $MISSION|H$"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> REMOVE_DAYS_TO_MISSION:0 "Remove $DAYS|H$ days from Mission $MISSION|H$"</v>
+        <v> REMOVE_DAYS_TO_MISSION:0 "Entferne $DAYS|H$ Tage aus Mission $MISSION|H$"</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> REMOVE_DAYS_TO_MISSION:0 "Remove $DAYS|H$ days from Mission $MISSION|H$"</v>
+        <v> REMOVE_DAYS_TO_MISSION:0 "Entferne $DAYS|H$ Tage aus Mission $MISSION|H$"</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> CLICK_TO_TOGGLE_ALL_CATEGORY_DECISION_TRACKING:0 "§GClick§! to toggle notification status for all decisions under this category."</v>
+        <v> CLICK_TO_TOGGLE_ALL_CATEGORY_DECISION_TRACKING:0 "§G§G Klicken Sie auf §!§!, um den Benachrichtigungsstatus für alle Entscheidungen dieser Kategorie umzuschalten."</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> CLICK_TO_TOGGLE_ALL_CATEGORY_DECISION_TRACKING:0 "§GClick§! to toggle notification status for all decisions under this category."</v>
+        <v> CLICK_TO_TOGGLE_ALL_CATEGORY_DECISION_TRACKING:0 "§G§G Klicken Sie auf §!§!, um den Benachrichtigungsstatus für alle Entscheidungen dieser Kategorie umzuschalten."</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> banned_communism_flag:0 "Has banned communist parties"</v>
+        <v> banned_communism_flag:0 "Hat kommunistische Parteien verboten"</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v> banned_communism_flag:0 "Has banned communist parties"</v>
+        <v> banned_communism_flag:0 "Hat kommunistische Parteien verboten"</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> FRA_civil_unrest_category:0 "Civil Unrest"</v>
+        <v> FRA_civil_unrest_category:0 "Zivile Unruhen"</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> FRA_civil_unrest_category:0 "Civil Unrest"</v>
+        <v> FRA_civil_unrest_category:0 "Zivile Unruhen"</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> FRA_communist_civil_war_decision:0 "Imminent Communist Uprising"</v>
+        <v> FRA_communist_civil_war_decision:0 "Drohender kommunistischer Aufstand"</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> FRA_communist_civil_war_decision:0 "Imminent Communist Uprising"</v>
+        <v> FRA_communist_civil_war_decision:0 "Drohender kommunistischer Aufstand"</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> FRA_communist_civil_war_decision_desc:0 "The rising furore of radical politics is becoming harder to appease - eventually we must confront it one way or another."</v>
+        <v> FRA_communist_civil_war_decision_desc:0 "Die wachsende Wut der radikalen Politik lässt sich immer schwerer besänftigen - schließlich müssen wir uns ihr auf die eine oder andere Weise stellen."</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> FRA_communist_civil_war_decision_desc:0 "The rising furore of radical politics is becoming harder to appease - eventually we must confront it one way or another."</v>
+        <v> FRA_communist_civil_war_decision_desc:0 "Die wachsende Wut der radikalen Politik lässt sich immer schwerer besänftigen - schließlich müssen wir uns ihr auf die eine oder andere Weise stellen."</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> FRA_fascist_civil_war_decision:0 "Imminent Fascist Uprising"</v>
+        <v> FRA_fascist_civil_war_decision:0 "Drohender faschistischer Aufstand"</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> FRA_fascist_civil_war_decision:0 "Imminent Fascist Uprising"</v>
+        <v> FRA_fascist_civil_war_decision:0 "Drohender faschistischer Aufstand"</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> FRA_fascist_civil_war_decision_desc:0 "The rising populist sentiment is proving to be an unstoppable tide. There is no avoiding the inevitable."</v>
+        <v> FRA_fascist_civil_war_decision_desc:0 "Die aufkommende populistische Stimmung erweist sich als eine unaufhaltsame Flut. Das Unvermeidliche ist nicht mehr aufzuhalten."</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> FRA_fascist_civil_war_decision_desc:0 "The rising populist sentiment is proving to be an unstoppable tide. There is no avoiding the inevitable."</v>
+        <v> FRA_fascist_civil_war_decision_desc:0 "Die aufkommende populistische Stimmung erweist sich als eine unaufhaltsame Flut. Das Unvermeidliche ist nicht mehr aufzuhalten."</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> ETH_defeat_italy:0 "Defeat the Colonizers"</v>
+        <v> ETH_defeat_italy:0 "Besiegt die Kolonisatoren"</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> ETH_defeat_italy:0 "Defeat the Colonizers"</v>
+        <v> ETH_defeat_italy:0 "Besiegt die Kolonisatoren"</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> ETH_defeat_italy_category:0 "The Second Italian-Ethiopian War"</v>
+        <v> ETH_defeat_italy_category:0 "Der zweite italienisch-äthiopische Krieg"</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> ETH_defeat_italy_category:0 "The Second Italian-Ethiopian War"</v>
+        <v> ETH_defeat_italy_category:0 "Der zweite italienisch-äthiopische Krieg"</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> ETH_defeat_italy_category_desc:0 "Italy once again seeks to see Ethiopia subjugated into a mere colony. We defeated these invaders last time, and we can defeat them again if only we can remove them from our border for good!"</v>
+        <v> ETH_defeat_italy_category_desc:0 "Italien versucht erneut, Äthiopien zu einer bloßen Kolonie zu degradieren. Wir haben diese Eindringlinge das letzte Mal besiegt und wir können sie erneut besiegen, wenn wir sie nur für immer von unserer Grenze entfernen können!"</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> ETH_defeat_italy_category_desc:0 "Italy once again seeks to see Ethiopia subjugated into a mere colony. We defeated these invaders last time, and we can defeat them again if only we can remove them from our border for good!"</v>
+        <v> ETH_defeat_italy_category_desc:0 "Italien versucht erneut, Äthiopien zu einer bloßen Kolonie zu degradieren. Wir haben diese Eindringlinge das letzte Mal besiegt und wir können sie erneut besiegen, wenn wir sie nur für immer von unserer Grenze entfernen können!"</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> seize_some_trains_woo:0 "Commandeer Civilian Trains"</v>
+        <v> seize_some_trains_woo:0 "Zivile Züge kommandieren"</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> seize_some_trains_woo:0 "Commandeer Civilian Trains"</v>
+        <v> seize_some_trains_woo:0 "Zivile Züge kommandieren"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> seize_some_trains_woo_desc:0 "The merchant rail companies hold sway over our infrastructure. With war looming, we are well within our rights to commandeer equipment for state use."</v>
+        <v> seize_some_trains_woo_desc:0 "Die Handelsbahnen haben die Kontrolle über unsere Infrastruktur. Angesichts des drohenden Krieges ist es unser gutes Recht, Ausrüstung für staatliche Zwecke zu beschlagnahmen."</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> seize_some_trains_woo_desc:0 "The merchant rail companies hold sway over our infrastructure. With war looming, we are well within our rights to commandeer equipment for state use."</v>
+        <v> seize_some_trains_woo_desc:0 "Die Handelsbahnen haben die Kontrolle über unsere Infrastruktur. Angesichts des drohenden Krieges ist es unser gutes Recht, Ausrüstung für staatliche Zwecke zu beschlagnahmen."</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> random_general_monarchy_tt:0 "A random [FROM.GetAdjective] general will gain secret monarchist sympathies."</v>
+        <v> random_general_monarchy_tt:0 "Ein beliebiger [FROM.GetAdjective]-General wird geheime monarchistische Sympathien gewinnen."</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> random_general_monarchy_tt:0 "A random [FROM.GetAdjective] general will gain secret monarchist sympathies."</v>
+        <v> random_general_monarchy_tt:0 "Ein beliebiger [FROM.GetAdjective]-General wird geheime monarchistische Sympathien gewinnen."</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> removed_when_cancelled_war_prop:0 "Propaganda campaigns have been ended."</v>
+        <v> removed_when_cancelled_war_prop:0 "Die Propagandakampagnen sind beendet."</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> removed_when_cancelled_war_prop:0 "Propaganda campaigns have been ended."</v>
+        <v> removed_when_cancelled_war_prop:0 "Die Propagandakampagnen sind beendet."</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> war_propaganda_casualties:0 "Exhort Heroism"</v>
+        <v> war_propaganda_casualties:0 "Heldentum anmahnen"</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> war_propaganda_casualties:0 "Exhort Heroism"</v>
+        <v> war_propaganda_casualties:0 "Heldentum anmahnen"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> war_propaganda_casualties_desc:0 "Although the death toll rises, our people must be taught that only in battle are heroes forged."</v>
+        <v> war_propaganda_casualties_desc:0 "Auch wenn die Zahl der Todesopfer steigt, muss unserem Volk beigebracht werden, dass Helden nur im Kampf geschmiedet werden."</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> war_propaganda_casualties_desc:0 "Although the death toll rises, our people must be taught that only in battle are heroes forged."</v>
+        <v> war_propaganda_casualties_desc:0 "Auch wenn die Zahl der Todesopfer steigt, muss unserem Volk beigebracht werden, dass Helden nur im Kampf geschmiedet werden."</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> war_propaganda_convoys:0 "Encourage Frugality"</v>
+        <v> war_propaganda_convoys:0 "Zur Genügsamkeit ermutigen"</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> war_propaganda_convoys:0 "Encourage Frugality"</v>
+        <v> war_propaganda_convoys:0 "Zur Genügsamkeit ermutigen"</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> war_propaganda_convoys_desc:0 "Even civilians can help win the war - by care and attention to our material usage, every gram of steel can be made twice as valuable to the war effort."</v>
+        <v> war_propaganda_convoys_desc:0 "Auch Zivilisten können dazu beitragen, den Krieg zu gewinnen - durch sorgfältigen Umgang mit dem Material kann jedes Gramm Stahl doppelt so wertvoll für die Kriegsanstrengungen gemacht werden."</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v> war_propaganda_convoys_desc:0 "Even civilians can help win the war - by care and attention to our material usage, every gram of steel can be made twice as valuable to the war effort."</v>
+        <v> war_propaganda_convoys_desc:0 "Auch Zivilisten können dazu beitragen, den Krieg zu gewinnen - durch sorgfältigen Umgang mit dem Material kann jedes Gramm Stahl doppelt so wertvoll für die Kriegsanstrengungen gemacht werden."</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> war_propaganda_bombing:0 "Bolster Spirits"</v>
+        <v> war_propaganda_bombing:0 "Den Geist stärken"</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> war_propaganda_bombing:0 "Bolster Spirits"</v>
+        <v> war_propaganda_bombing:0 "Den Geist stärken"</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> war_propaganda_bombing_desc:0 "Though bombs fall all around us, our brave workers soldier on. It is by this spirit that we will be victorious."</v>
+        <v> war_propaganda_bombing_desc:0 "Obwohl überall um uns herum Bomben fallen, kämpfen unsere tapferen Arbeiter weiter. Durch diesen Geist werden wir siegreich sein."</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> war_propaganda_bombing_desc:0 "Though bombs fall all around us, our brave workers soldier on. It is by this spirit that we will be victorious."</v>
+        <v> war_propaganda_bombing_desc:0 "Obwohl überall um uns herum Bomben fallen, kämpfen unsere tapferen Arbeiter weiter. Durch diesen Geist werden wir siegreich sein."</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> war_support_during_war:0 "War Support"</v>
+        <v> war_support_during_war:0 "Kriegsunterstützung"</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> war_support_during_war:0 "War Support"</v>
+        <v> war_support_during_war:0 "Kriegsunterstützung"</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> RAJ_population_decisions:0 "Rural Industrialization"</v>
+        <v> RAJ_population_decisions:0 "Ländliche Industrialisierung"</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> RAJ_population_decisions:0 "Rural Industrialization"</v>
+        <v> RAJ_population_decisions:0 "Ländliche Industrialisierung"</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> RAJ_industrialize_state:0 "Industrialize [FROM.GetName]"</v>
+        <v> RAJ_industrialize_state:0 "Industrialisieren [FROM.GetName]"</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> RAJ_industrialize_state:0 "Industrialize [FROM.GetName]"</v>
+        <v> RAJ_industrialize_state:0 "Industrialisieren [FROM.GetName]"</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> RAJ_industrialize_state_desc:0 "Our nation is once again on the rise. Although the task is great, bringing rural areas into the modern era is sure to pay dividends in the future."</v>
+        <v> RAJ_industrialize_state_desc:0 "Unsere Nation ist wieder auf dem Vormarsch. Obwohl die Aufgabe groß ist, wird es sich in Zukunft sicher auszahlen, die ländlichen Gebiete an die Moderne heranzuführen."</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> RAJ_industrialize_state_desc:0 "Our nation is once again on the rise. Although the task is great, bringing rural areas into the modern era is sure to pay dividends in the future."</v>
+        <v> RAJ_industrialize_state_desc:0 "Unsere Nation ist wieder auf dem Vormarsch. Obwohl die Aufgabe groß ist, wird es sich in Zukunft sicher auszahlen, die ländlichen Gebiete an die Moderne heranzuführen."</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> RAJ_industrialized_this_state:0 "§HRural areas already industrialized§!"</v>
+        <v> RAJ_industrialized_this_state:0 "§H§H Ländliche Gebiete bereits industrialisiert §!§! "</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v> RAJ_industrialized_this_state:0 "§HRural areas already industrialized§!"</v>
+        <v> RAJ_industrialized_this_state:0 "§H§H Ländliche Gebiete bereits industrialisiert §!§! "</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v> RAJ_reduce_agrarian_society_value_tooltip:0 "\n§H$RAJ_agrarian_society$§!\nRecruitable Population Factor: [?RAJ_agrarian_society_increment|+=%]\n"</v>
+        <v> RAJ_reduce_agrarian_society_value_tooltip:0 "\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nRecruitable Population Factor: [?RAJ_agrarische_Gesellschaft_Zuwachs|+=%]\n"</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
-        <v> RAJ_reduce_agrarian_society_value_tooltip:0 "\n§H$RAJ_agrarian_society$§!\nRecruitable Population Factor: [?RAJ_agrarian_society_increment|+=%]\n"</v>
+        <v> RAJ_reduce_agrarian_society_value_tooltip:0 "\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nRecruitable Population Factor: [?RAJ_agrarische_Gesellschaft_Zuwachs|+=%]\n"</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v> RAJ_reduce_agrarian_society_value_2_tooltip:0 "\n§H$RAJ_agrarian_society$§!\nResearch and Factory Output Factor: §G+5%§!\n"</v>
+        <v> RAJ_reduce_agrarian_society_value_2_tooltip:0 "\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nForschungs- und Fabrikproduktionsfaktor: §G§G +5% §!§! \n"</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
-        <v> RAJ_reduce_agrarian_society_value_2_tooltip:0 "\n§H$RAJ_agrarian_society$§!\nResearch and Factory Output Factor: §G+5%§!\n"</v>
+        <v> RAJ_reduce_agrarian_society_value_2_tooltip:0 "\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nForschungs- und Fabrikproduktionsfaktor: §G§G +5% §!§! \n"</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1" t="str">
         <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v> RAJ_reduce_agrarian_society_value_3_tooltip:0 "\n§H$RAJ_agrarian_society$§!\nResearch and Factory Output Factor: [?RAJ_agrarian_society_increment|+=%]\n"</v>
+        <v> RAJ_reduce_agrarian_society_value_3_tooltip:0 "\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nForschungs- und Fabrikproduktionsfaktor: [?RAJ_agrarische_Gesellschaft_Zuwachs|+=%]\n"</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
-        <v> RAJ_reduce_agrarian_society_value_3_tooltip:0 "\n§H$RAJ_agrarian_society$§!\nResearch and Factory Output Factor: [?RAJ_agrarian_society_increment|+=%]\n"</v>
+        <v> RAJ_reduce_agrarian_society_value_3_tooltip:0 "\n§H§H $RAJ_agrarische_Gesellschaft$ §!§! \nForschungs- und Fabrikproduktionsfaktor: [?RAJ_agrarische_Gesellschaft_Zuwachs|+=%]\n"</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v> war_propaganda_radio_industry:0 "Radio Propaganda"</v>
+        <v> war_propaganda_radio_industry:0 "Radio-Propaganda"</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
-        <v> war_propaganda_radio_industry:0 "Radio Propaganda"</v>
+        <v> war_propaganda_radio_industry:0 "Radio-Propaganda"</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> war_propaganda_radio_industry_desc:0 "Technology has developed to a point where a significant proportion of our population has access to a home radio. State sponsored media is the perfect tool for stoking the war effort in the hearts of our people."</v>
+        <v> war_propaganda_radio_industry_desc:0 "Die Technologie hat sich so weit entwickelt, dass ein erheblicher Teil unserer Bevölkerung Zugang zu einem Heimradio hat. Staatlich geförderte Medien sind das perfekte Instrument, um die Kriegsanstrengungen in den Herzen unserer Bevölkerung zu schüren."</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
-        <v> war_propaganda_radio_industry_desc:0 "Technology has developed to a point where a significant proportion of our population has access to a home radio. State sponsored media is the perfect tool for stoking the war effort in the hearts of our people."</v>
+        <v> war_propaganda_radio_industry_desc:0 "Die Technologie hat sich so weit entwickelt, dass ein erheblicher Teil unserer Bevölkerung Zugang zu einem Heimradio hat. Staatlich geförderte Medien sind das perfekte Instrument, um die Kriegsanstrengungen in den Herzen unserer Bevölkerung zu schüren."</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
@@ -2868,10 +2883,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
@@ -2884,71 +2899,71 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> DOMESTIC_FILM_INDUSTRY:0 "Utilize Domestic Film Industry"</v>
+        <v> DOMESTIC_FILM_INDUSTRY:0 "Einheimische Filmindustrie nutzen"</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v> DOMESTIC_FILM_INDUSTRY:0 "Utilize Domestic Film Industry"</v>
+        <v> DOMESTIC_FILM_INDUSTRY:0 "Einheimische Filmindustrie nutzen"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> IMPORTED_FILM_INDUSTRY:0 "Import Allied Propaganda Films"</v>
+        <v> IMPORTED_FILM_INDUSTRY:0 "Verbündete Propagandafilme importieren"</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v> IMPORTED_FILM_INDUSTRY:0 "Import Allied Propaganda Films"</v>
+        <v> IMPORTED_FILM_INDUSTRY:0 "Verbündete Propagandafilme importieren"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="str">
         <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v> DOMESTIC_FILM_INDUSTRY_DESC:0 "The [ROOT.GetAdjective] film industry has developed significantly in the last decade. With a population starved for entertainment, we stand to benefit from a cinematic production designed to stir patriotic sentiment."</v>
+        <v> DOMESTIC_FILM_INDUSTRY_DESC:0 "Die [ROOT.GetAdjective] Filmindustrie hat sich im letzten Jahrzehnt stark entwickelt. Bei einer Bevölkerung, die nach Unterhaltung hungert, können wir von einer Filmproduktion profitieren, die patriotische Gefühle weckt."</v>
       </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
-        <v> DOMESTIC_FILM_INDUSTRY_DESC:0 "The [ROOT.GetAdjective] film industry has developed significantly in the last decade. With a population starved for entertainment, we stand to benefit from a cinematic production designed to stir patriotic sentiment."</v>
+        <v> DOMESTIC_FILM_INDUSTRY_DESC:0 "Die [ROOT.GetAdjective] Filmindustrie hat sich im letzten Jahrzehnt stark entwickelt. Bei einer Bevölkerung, die nach Unterhaltung hungert, können wir von einer Filmproduktion profitieren, die patriotische Gefühle weckt."</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> IMPORTED_FILM_INDUSTRY_DESC:0 "Our benefactors and allies are making strategic use of propaganda films. With a little investment, we could screen these productions around our own country in order to stir the war effort amongst our people."</v>
+        <v> IMPORTED_FILM_INDUSTRY_DESC:0 "Unsere Gönner und Verbündeten setzen Propagandafilme strategisch ein. Mit ein wenig Investition könnten wir diese Produktionen in unserem eigenen Land zeigen, um unsere Bevölkerung für den Krieg zu begeistern."</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
-        <v> IMPORTED_FILM_INDUSTRY_DESC:0 "Our benefactors and allies are making strategic use of propaganda films. With a little investment, we could screen these productions around our own country in order to stir the war effort amongst our people."</v>
+        <v> IMPORTED_FILM_INDUSTRY_DESC:0 "Unsere Gönner und Verbündeten setzen Propagandafilme strategisch ein. Mit ein wenig Investition könnten wir diese Produktionen in unserem eigenen Land zeigen, um unsere Bevölkerung für den Krieg zu begeistern."</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
@@ -2961,103 +2976,103 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> the_lion_has_wings: "The Lion Has Wings (Der geflügelte Löwe)"</v>
+        <v> the_lion_has_wings: "Der geflügelte Löwe (The Lion Has Wings)"</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> the_lion_has_wings: "The Lion Has Wings (Der geflügelte Löwe)"</v>
+        <v> the_lion_has_wings: "Der geflügelte Löwe (The Lion Has Wings)"</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> the_battle_of_london: "The Battle of London (Die Schlacht von London)"</v>
+        <v> the_battle_of_london: "Die Schlacht von London (The Battle of London)"</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v> the_battle_of_london: "The Battle of London (Die Schlacht von London)"</v>
+        <v> the_battle_of_london: "Die Schlacht von London (The Battle of London)"</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> queens_messengers: "Queen’s Messengers (Boten der Königin)"</v>
+        <v> queens_messengers: "Boten der Königin (Boten der Königin)"</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> queens_messengers: "Queen’s Messengers (Boten der Königin)"</v>
+        <v> queens_messengers: "Boten der Königin (Boten der Königin)"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> in_which_we_serve: "In Which We Serve (Wo wir dienen)"</v>
+        <v> in_which_we_serve: "Wo wir dienen (Wo wir dienen)"</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
-        <v> in_which_we_serve: "In Which We Serve (Wo wir dienen)"</v>
+        <v> in_which_we_serve: "Wo wir dienen (Wo wir dienen)"</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> the_volunteer: "The Volunteer (Der Freiwillige)"</v>
+        <v> the_volunteer: "Der Freiwillige (The Volunteer)"</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> the_volunteer: "The Volunteer (Der Freiwillige)"</v>
+        <v> the_volunteer: "Der Freiwillige (The Volunteer)"</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> fires_were_started: "Fires Were Started (Gelegte Feuer)"</v>
+        <v> fires_were_started: "Gelegte Feuer (Fires Were Started)"</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> fires_were_started: "Fires Were Started (Gelegte Feuer)"</v>
+        <v> fires_were_started: "Gelegte Feuer (Fires Were Started)"</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
@@ -3070,55 +3085,55 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> men_of_timor: "Men of Timor (Männer aus Timor)"</v>
+        <v> men_of_timor: "Männer aus Timor (Männer aus Timor)"</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> men_of_timor: "Men of Timor (Männer aus Timor)"</v>
+        <v> men_of_timor: "Männer aus Timor (Männer aus Timor)"</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> soldiers_without_uniform: "Soldiers Without Uniform (Soldaten ohne Uniform)"</v>
+        <v> soldiers_without_uniform: "Soldaten ohne Uniform (Soldaten ohne Uniform)"</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v> soldiers_without_uniform: "Soldiers Without Uniform (Soldaten ohne Uniform)"</v>
+        <v> soldiers_without_uniform: "Soldaten ohne Uniform (Soldaten ohne Uniform)"</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v> mid_east: "Mid East (Mittlerer Osten)"</v>
+        <v> mid_east: "Mittlerer Osten (Mid East)"</v>
       </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
-        <v> mid_east: "Mid East (Mittlerer Osten)"</v>
+        <v> mid_east: "Mittlerer Osten (Mid East)"</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
@@ -3131,103 +3146,103 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> atlantic_patrol: "Atlantic Patrol (Atlantikpatroullie)"</v>
+        <v> atlantic_patrol: "Atlantische Patrouille (Atlantikpatroullie)"</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> atlantic_patrol: "Atlantic Patrol (Atlantikpatroullie)"</v>
+        <v> atlantic_patrol: "Atlantische Patrouille (Atlantikpatroullie)"</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> front_of_steel: "Front of Steel (Stahlfront)"</v>
+        <v> front_of_steel: "Front aus Stahl (Stahlfront)"</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v> front_of_steel: "Front of Steel (Stahlfront)"</v>
+        <v> front_of_steel: "Front aus Stahl (Stahlfront)"</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> home_front: "Home Front (Heimatfront)"</v>
+        <v> home_front: "Heimatfront (Heimatfront)"</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v> home_front: "Home Front (Heimatfront)"</v>
+        <v> home_front: "Heimatfront (Heimatfront)"</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> wings_of_youth: "Wings of Youth (Jugendgeschwader)"</v>
+        <v> wings_of_youth: "Jugendgeschwader (Wings of Youth)"</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v> wings_of_youth: "Wings of Youth (Jugendgeschwader)"</v>
+        <v> wings_of_youth: "Jugendgeschwader (Wings of Youth)"</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> all_out_for_war: "All Out for War (Totaler Krieg)"</v>
+        <v> all_out_for_war: "Totaler Krieg (All Out for War)"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> all_out_for_war: "All Out for War (Totaler Krieg)"</v>
+        <v> all_out_for_war: "Totaler Krieg (All Out for War)"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v> banshees_over_canada: "Banshees Over Canada (Die Todesengel von Kanada)"</v>
+        <v> banshees_over_canada: "Banshees über Kanada (Die Todesengel von Kanada)"</v>
       </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
-        <v> banshees_over_canada: "Banshees Over Canada (Die Todesengel von Kanada)"</v>
+        <v> banshees_over_canada: "Banshees über Kanada (Die Todesengel von Kanada)"</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
@@ -3240,71 +3255,71 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> the_planes_of_hindustan: "The Planes of Hindustan (Die Flugzeuge von Hindustan)"</v>
+        <v> the_planes_of_hindustan: "Die Flugzeuge von Hindustan (Die Flugzeuge von Hindustan)"</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> the_planes_of_hindustan: "The Planes of Hindustan (Die Flugzeuge von Hindustan)"</v>
+        <v> the_planes_of_hindustan: "Die Flugzeuge von Hindustan (Die Flugzeuge von Hindustan)"</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v> road_to_victory: "Road to Victory (Der Weg zum Sieg)"</v>
+        <v> road_to_victory: "Straße zum Sieg (Der Weg zum Sieg)"</v>
       </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
-        <v> road_to_victory: "Road to Victory (Der Weg zum Sieg)"</v>
+        <v> road_to_victory: "Straße zum Sieg (Der Weg zum Sieg)"</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v> hes_in_the_navy: "He’s in the Navy (Er ist bei der Marine)"</v>
+        <v> hes_in_the_navy: "Er ist bei der Marine (He's in the Navy)"</v>
       </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
-        <v> hes_in_the_navy: "He’s in the Navy (Er ist bei der Marine)"</v>
+        <v> hes_in_the_navy: "Er ist bei der Marine (He's in the Navy)"</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> in_self_defence: "In Self Defence (Selbstverteidigung)"</v>
+        <v> in_self_defence: "In Selbstverteidigung (Selbstverteidigung)"</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> in_self_defence: "In Self Defence (Selbstverteidigung)"</v>
+        <v> in_self_defence: "In Selbstverteidigung (Selbstverteidigung)"</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
@@ -3317,26 +3332,26 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> women_in_defense: "Women in Defense (Frauen für die Verteidigung)"</v>
+        <v> women_in_defense: "Frauen für die Verteidigung (Women in Defense)"</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> women_in_defense: "Women in Defense (Frauen für die Verteidigung)"</v>
+        <v> women_in_defense: "Frauen für die Verteidigung (Women in Defense)"</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
@@ -3349,135 +3364,135 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> the_world_at_war: "The World at War (Die Welt im Krieg)"</v>
+        <v> the_world_at_war: "Die Welt im Krieg (The World at War)"</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> the_world_at_war: "The World at War (Die Welt im Krieg)"</v>
+        <v> the_world_at_war: "Die Welt im Krieg (The World at War)"</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v> mission_accomplished: "Mission Accomplished (Mission erfolgreich)"</v>
+        <v> mission_accomplished: "Mission erfolgreich (Mission Accomplished)"</v>
       </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
-        <v> mission_accomplished: "Mission Accomplished (Mission erfolgreich)"</v>
+        <v> mission_accomplished: "Mission erfolgreich (Mission Accomplished)"</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> the_fleet_that_came_to_stay: "The Fleet That Came to Stay (Die Flotte, die blieb)"</v>
+        <v> the_fleet_that_came_to_stay: "Die Flotte, die blieb (The Fleet That Came to Stay)"</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
-        <v> the_fleet_that_came_to_stay: "The Fleet That Came to Stay (Die Flotte, die blieb)"</v>
+        <v> the_fleet_that_came_to_stay: "Die Flotte, die blieb (The Fleet That Came to Stay)"</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v> fury_in_the_pacific: "Fury in the Pacific (Schlacht im Pazifik)"</v>
+        <v> fury_in_the_pacific: "Wut im Pazifik (Schlacht im Pazifik)"</v>
       </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
-        <v> fury_in_the_pacific: "Fury in the Pacific (Schlacht im Pazifik)"</v>
+        <v> fury_in_the_pacific: "Wut im Pazifik (Schlacht im Pazifik)"</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v> fury_in_the_europe:0 "Fury"</v>
+        <v> fury_in_the_europe:0 "Wut"</v>
       </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
-        <v> fury_in_the_europe:0 "Fury"</v>
+        <v> fury_in_the_europe:0 "Wut"</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v> its_your_war_too: "It’s Your War Too (Es ist auch dein Krieg)"</v>
+        <v> its_your_war_too: "Es ist auch dein Krieg (Es ist auch dein Krieg)"</v>
       </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
-        <v> its_your_war_too: "It’s Your War Too (Es ist auch dein Krieg)"</v>
+        <v> its_your_war_too: "Es ist auch dein Krieg (Es ist auch dein Krieg)"</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v> time_in_munich:0 "Once Upon a Time in Munich"</v>
+        <v> time_in_munich:0 "Es war einmal in München"</v>
       </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
-        <v> time_in_munich:0 "Once Upon a Time in Munich"</v>
+        <v> time_in_munich:0 "Es war einmal in München"</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v> french_schoolgirl:0 "French Schoolgirls"</v>
+        <v> french_schoolgirl:0 "Französische Schulmädchen"</v>
       </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
-        <v> french_schoolgirl:0 "French Schoolgirls"</v>
+        <v> french_schoolgirl:0 "Französische Schulmädchen"</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
@@ -3490,10 +3505,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
@@ -3506,55 +3521,55 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> high_stakes_in_the_east: "High Stakes in the East (Hohe Einsätze im Osten)"</v>
+        <v> high_stakes_in_the_east: "Hohe Einsätze im Osten (High Stakes in the East)"</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> high_stakes_in_the_east: "High Stakes in the East (Hohe Einsätze im Osten)"</v>
+        <v> high_stakes_in_the_east: "Hohe Einsätze im Osten (High Stakes in the East)"</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> glorious_colours: "Glorious Colours (Glorreiche Farben)"</v>
+        <v> glorious_colours: "Glorreiche Farben (Glorreiche Farben)"</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> glorious_colours: "Glorious Colours (Glorreiche Farben)"</v>
+        <v> glorious_colours: "Glorreiche Farben (Glorreiche Farben)"</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> litte_belgium: "Little Belgium (Klein-Belgien)"</v>
+        <v> litte_belgium: "Klein-Belgien (Klein-Belgien)"</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> litte_belgium: "Little Belgium (Klein-Belgien)"</v>
+        <v> litte_belgium: "Klein-Belgien (Klein-Belgien)"</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
@@ -3567,103 +3582,103 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> for_the_front: "For the Front (An der Front)"</v>
+        <v> for_the_front: "Für die Front (An der Front)"</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
-        <v> for_the_front: "For the Front (An der Front)"</v>
+        <v> for_the_front: "Für die Front (An der Front)"</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> the_peoples_avengers: "The People’s Avengers (Rache des Volkes)"</v>
+        <v> the_peoples_avengers: "Die Rache des Volkes (Rache des Volkes)"</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v> the_peoples_avengers: "The People’s Avengers (Rache des Volkes)"</v>
+        <v> the_peoples_avengers: "Die Rache des Volkes (Rache des Volkes)"</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v> day_of_war: "Day of War (Tag des Krieges)"</v>
+        <v> day_of_war: "Tag des Krieges (Day of War)"</v>
       </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
-        <v> day_of_war: "Day of War (Tag des Krieges)"</v>
+        <v> day_of_war: "Tag des Krieges (Day of War)"</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v> film_motherland: "Motherland (Mutterland)"</v>
+        <v> film_motherland: "Mutterland (Mutterland)"</v>
       </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
-        <v> film_motherland: "Motherland (Mutterland)"</v>
+        <v> film_motherland: "Mutterland (Mutterland)"</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> sons_of_the_motherland: "Sons of the Motherland (Söhne des Mutterlands)"</v>
+        <v> sons_of_the_motherland: "Söhne des Mutterlandes (Sons of the Motherland)"</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> sons_of_the_motherland: "Sons of the Motherland (Söhne des Mutterlands)"</v>
+        <v> sons_of_the_motherland: "Söhne des Mutterlandes (Sons of the Motherland)"</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> moscow_strikes_back: "Moscow Strikes Back (Moskau schlägt zurück)"</v>
+        <v> moscow_strikes_back: "Moskau schlägt zurück (Moscow Strikes Back)"</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> moscow_strikes_back: "Moscow Strikes Back (Moskau schlägt zurück)"</v>
+        <v> moscow_strikes_back: "Moskau schlägt zurück (Moscow Strikes Back)"</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
@@ -3676,10 +3691,10 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
@@ -3692,10 +3707,10 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
@@ -3708,10 +3723,10 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
@@ -3724,10 +3739,10 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
@@ -3740,10 +3755,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C147" s="1" t="str">
         <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
@@ -3756,10 +3771,10 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
@@ -3772,10 +3787,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
@@ -3788,26 +3803,26 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C150" s="1" t="str">
         <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v> panorama: "Panorama"</v>
+        <v> panorama: "Rundblick"</v>
       </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
-        <v> panorama: "Panorama"</v>
+        <v> panorama: "Rundblick"</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C151" s="1" t="str">
         <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
@@ -3820,7 +3835,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
@@ -3833,10 +3848,10 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C153" s="1" t="str">
         <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
@@ -3849,10 +3864,10 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
@@ -3865,71 +3880,71 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C155" s="1" t="str">
         <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v> vow_in_the_desert: "Vow in the Desert (Schwur der Wüste)"</v>
+        <v> vow_in_the_desert: "Gelübde in der Wüste (Schwur der Wüste)"</v>
       </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
-        <v> vow_in_the_desert: "Vow in the Desert (Schwur der Wüste)"</v>
+        <v> vow_in_the_desert: "Gelübde in der Wüste (Schwur der Wüste)"</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> song_of_the_white_orchid: "Song of the White Orchid (Das Lied der Weißen Orchidee)"</v>
+        <v> song_of_the_white_orchid: "Das Lied der Weißen Orchidee (Song of the White Orchid)"</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v> song_of_the_white_orchid: "Song of the White Orchid (Das Lied der Weißen Orchidee)"</v>
+        <v> song_of_the_white_orchid: "Das Lied der Weißen Orchidee (Song of the White Orchid)"</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C157" s="1" t="str">
         <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v> five_scouts: "Five Scouts (Fünf Aufklärer)"</v>
+        <v> five_scouts: "Fünf Aufklärer (Five Scouts)"</v>
       </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
-        <v> five_scouts: "Five Scouts (Fünf Aufklärer)"</v>
+        <v> five_scouts: "Fünf Aufklärer (Five Scouts)"</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C158" s="1" t="str">
         <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v> fire_on_that_flag: "Fire on That Flag! (Feuert auf die Flagge!)"</v>
+        <v> fire_on_that_flag: "Feuer auf die Flagge! (Feuert auf die Flagge!)"</v>
       </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
-        <v> fire_on_that_flag: "Fire on That Flag! (Feuert auf die Flagge!)"</v>
+        <v> fire_on_that_flag: "Feuer auf die Flagge! (Feuert auf die Flagge!)"</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
@@ -3942,10 +3957,10 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C160" s="1" t="str">
         <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
@@ -3958,10 +3973,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C161" s="1" t="str">
         <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
@@ -3974,23 +3989,23 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> the_man_with_the_cross: "The Man With the Cross (Der Mann mit dem Kreuz)"</v>
+        <v> the_man_with_the_cross: "Der Mann mit dem Kreuz (The Man With the Cross)"</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v> the_man_with_the_cross: "The Man With the Cross (Der Mann mit dem Kreuz)"</v>
+        <v> the_man_with_the_cross: "Der Mann mit dem Kreuz (The Man With the Cross)"</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
@@ -4003,103 +4018,103 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> our_war: "Our War (Unser Krieg)"</v>
+        <v> our_war: "Unser Krieg (Our War)"</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> our_war: "Our War (Unser Krieg)"</v>
+        <v> our_war: "Unser Krieg (Our War)"</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> the_war_for_our_existence: "The War for our Existence (Überlebenskrieg)"</v>
+        <v> the_war_for_our_existence: "Der Krieg um unsere Existenz (Überlebenskrieg)"</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> the_war_for_our_existence: "The War for our Existence (Überlebenskrieg)"</v>
+        <v> the_war_for_our_existence: "Der Krieg um unsere Existenz (Überlebenskrieg)"</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> war_in_the_skies: "War in the Skies (Krieg am Himmel)"</v>
+        <v> war_in_the_skies: "Krieg am Himmel (War in the Skies)"</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v> war_in_the_skies: "War in the Skies (Krieg am Himmel)"</v>
+        <v> war_in_the_skies: "Krieg am Himmel (War in the Skies)"</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> flags_raised: "Flags Raised (Gehisste Flaggen)"</v>
+        <v> flags_raised: "Die gehissten Fahnen (Flaggen)"</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v> flags_raised: "Flags Raised (Gehisste Flaggen)"</v>
+        <v> flags_raised: "Die gehissten Fahnen (Flaggen)"</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> the_day_of_sacrifice: "The Day of Sacrifice (Tag der Opferung)"</v>
+        <v> the_day_of_sacrifice: "Der Tag der Opferung (Tag der Opferung)"</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v> the_day_of_sacrifice: "The Day of Sacrifice (Tag der Opferung)"</v>
+        <v> the_day_of_sacrifice: "Der Tag der Opferung (Tag der Opferung)"</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> blood_and_toil: "Blood and Toil (Blut und Schweiß)"</v>
+        <v> blood_and_toil: "Blut und Schweiß (Blood and Toil)"</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v> blood_and_toil: "Blood and Toil (Blut und Schweiß)"</v>
+        <v> blood_and_toil: "Blut und Schweiß (Blood and Toil)"</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
@@ -4112,55 +4127,55 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C171" s="1" t="str">
         <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v> cats_in_uniforms:0 "Cats in Uniforms"</v>
+        <v> cats_in_uniforms:0 "Katzen in Uniformen"</v>
       </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
-        <v> cats_in_uniforms:0 "Cats in Uniforms"</v>
+        <v> cats_in_uniforms:0 "Katzen in Uniformen"</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C172" s="1" t="str">
         <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v> cats_on_mission:0 "Cats on a Mission"</v>
+        <v> cats_on_mission:0 "Katzen im Einsatz (Cats on a Mission)"</v>
       </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
-        <v> cats_on_mission:0 "Cats on a Mission"</v>
+        <v> cats_on_mission:0 "Katzen im Einsatz (Cats on a Mission)"</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C173" s="1" t="str">
         <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v> cats_aboard:0 "All cats Aboard!"</v>
+        <v> cats_aboard:0 "Alle Katzen an Bord!"</v>
       </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
-        <v> cats_aboard:0 "All cats Aboard!"</v>
+        <v> cats_aboard:0 "Alle Katzen an Bord!"</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C174" s="1" t="str">
         <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
@@ -4173,10 +4188,10 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
@@ -4189,18 +4204,18 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> flying_witches:0 "Flying Witches"</v>
+        <v> flying_witches:0 "Fliegende Hexen"</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v> flying_witches:0 "Flying Witches"</v>
+        <v> flying_witches:0 "Fliegende Hexen"</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4233,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C178" s="1" t="str">
         <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
@@ -4231,26 +4246,26 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> available_mio_tt: "Als §Ymilitärisch-industrielle Organisation§! §Gverfügbar§!:	"</v>
+        <v> available_mio_tt: "Als §Y§Y militärisch-industrielle Organisation §!§!  §G§G verfügbar §!§! : "</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v> available_mio_tt: "Als §Ymilitärisch-industrielle Organisation§! §Gverfügbar§!:	"</v>
+        <v> available_mio_tt: "Als §Y§Y militärisch-industrielle Organisation §!§!  §G§G verfügbar §!§! : "</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
@@ -4263,434 +4278,434 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> invite_GER_henschel_organization: "§Y$GER_henschel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_henschel_organization: "§Y§Y $GER_henschel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> invite_GER_henschel_organization: "§Y$GER_henschel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_henschel_organization: "§Y§Y $GER_henschel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> invite_SOV_okmo_organization: "§Y$SOV_okmo_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_okmo_organization: "§Y§Y $SOV_okmo_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> invite_SOV_okmo_organization: "§Y$SOV_okmo_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_okmo_organization: "§Y§Y $SOV_okmo_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> invite_ENG_vickers_armstrong_eng_organization: "§Y$ENG_vickers_armstrong_eng_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_vickers_armstrong_eng_organization: "§Y§Y $ENG_vickers_armstrong_eng_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v> invite_ENG_vickers_armstrong_eng_organization: "§Y$ENG_vickers_armstrong_eng_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_vickers_armstrong_eng_organization: "§Y§Y $ENG_vickers_armstrong_eng_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> invite_ITA_fiat_organization: "§Y$ITA_fiat_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ITA_fiat_organization: "§Y§Y $ITA_fiat_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v> invite_ITA_fiat_organization: "§Y$ITA_fiat_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ITA_fiat_organization: "§Y§Y $ITA_fiat_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> invite_SOV_nevskoye_design_bureau_organization: "§Y$SOV_nevskoye_design_bureau_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_nevskoye_design_bureau_organization: "§Y§Y $SOV_nevskoye_design_bureau_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> invite_SOV_nevskoye_design_bureau_organization: "§Y$SOV_nevskoye_design_bureau_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_nevskoye_design_bureau_organization: "§Y§Y $SOV_nevskoye_design_bureau_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> invite_ENG_yarrow_shipbuilders_organization: "§Y$ENG_yarrow_shipbuilders_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_yarrow_shipbuilders_organization: "§Y§Y $ENG_yarrow_shipbuilders_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> invite_ENG_yarrow_shipbuilders_organization: "§Y$ENG_yarrow_shipbuilders_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_yarrow_shipbuilders_organization: "§Y§Y $ENG_yarrow_shipbuilders_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> invite_ITA_crda_organization: "§Y$ITA_crda_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ITA_crda_organization: "§Y§Y $ITA_crda_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> invite_ITA_crda_organization: "§Y$ITA_crda_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ITA_crda_organization: "§Y§Y $ITA_crda_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C188" s="1" t="str">
         <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v> invite_GER_heinkel_organization: "§Y$GER_heinkel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_heinkel_organization: "§Y§Y $GER_heinkel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
-        <v> invite_GER_heinkel_organization: "§Y$GER_heinkel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_heinkel_organization: "§Y§Y $GER_heinkel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C189" s="1" t="str">
         <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v> invite_ENG_fairey_aviation_organization: "§Y$ENG_fairey_aviation_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_fairey_aviation_organization: "§Y§Y $ENG_fairey_aviation_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
-        <v> invite_ENG_fairey_aviation_organization: "§Y$ENG_fairey_aviation_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_fairey_aviation_organization: "§Y§Y $ENG_fairey_aviation_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C190" s="1" t="str">
         <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v> invite_SOV_ilyushin_design_bureau_organization: "§Y$SOV_ilyushin_design_bureau_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_ilyushin_design_bureau_organization: "§Y§Y $SOV_ilyushin_design_bureau_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
-        <v> invite_SOV_ilyushin_design_bureau_organization: "§Y$SOV_ilyushin_design_bureau_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_ilyushin_design_bureau_organization: "§Y§Y $SOV_ilyushin_design_bureau_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C191" s="1" t="str">
         <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v> invite_SOV_gaz_organization: "§Y$SOV_gaz_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_gaz_organization: "§Y§Y $SOV_gaz_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
-        <v> invite_SOV_gaz_organization: "§Y$SOV_gaz_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_SOV_gaz_organization: "§Y§Y $SOV_gaz_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C192" s="1" t="str">
         <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v> invite_GER_opel_organization: "§Y$GER_opel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_opel_organization: "§Y§Y $GER_opel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
-        <v> invite_GER_opel_organization: "§Y$GER_opel_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_opel_organization: "§Y§Y $GER_opel_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C193" s="1" t="str">
         <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v> invite_ENG_vauxhall_organization: "§Y$ENG_vauxhall_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_vauxhall_organization: "§Y§Y $ENG_vauxhall_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
-        <v> invite_ENG_vauxhall_organization: "§Y$ENG_vauxhall_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_vauxhall_organization: "§Y§Y $ENG_vauxhall_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v> invite_ITA_lancia_organization: "§Y$ITA_lancia_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ITA_lancia_organization: "§Y§Y $ITA_lancia_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v> invite_ITA_lancia_organization: "§Y$ITA_lancia_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ITA_lancia_organization: "§Y§Y $ITA_lancia_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C195" s="1" t="str">
         <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v> invite_CZE_skoda_artillery_organization: "§Y$CZE_skoda_artillery_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_skoda_artillery_organization: "§Y§Y $CZE_skoda_artillery_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
-        <v> invite_CZE_skoda_artillery_organization: "§Y$CZE_skoda_artillery_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_skoda_artillery_organization: "§Y§Y $CZE_skoda_artillery_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C196" s="1" t="str">
         <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v> invite_FRA_mas_organization: "§Y$FRA_mas_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_FRA_mas_organization: "§Y§Y $FRA_mas_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
-        <v> invite_FRA_mas_organization: "§Y$FRA_mas_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_FRA_mas_organization: "§Y§Y $FRA_mas_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C197" s="1" t="str">
         <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v> invite_JAP_nissan_organization: "§Y$JAP_nissan_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_JAP_nissan_organization: "§Y§Y $JAP_nissan_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
-        <v> invite_JAP_nissan_organization: "§Y$JAP_nissan_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_JAP_nissan_organization: "§Y§Y $JAP_nissan_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C198" s="1" t="str">
         <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v> invite_CZE_ckd_organization: "§Y$CZE_ckd_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_ckd_organization: "§Y§Y $CZE_ckd_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
-        <v> invite_CZE_ckd_organization: "§Y$CZE_ckd_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_ckd_organization: "§Y§Y $CZE_ckd_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C199" s="1" t="str">
         <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v> invite_CZE_skoda_armor_organization: "§Y$CZE_skoda_armor_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_skoda_armor_organization: "§Y§Y $CZE_skoda_armor_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
-        <v> invite_CZE_skoda_armor_organization: "§Y$CZE_skoda_armor_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_skoda_armor_organization: "§Y§Y $CZE_skoda_armor_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C200" s="1" t="str">
         <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v> invite_CZE_avia_organization: "§Y$CZE_avia_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_avia_organization: "§Y§Y $CZE_avia_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
-        <v> invite_CZE_avia_organization: "§Y$CZE_avia_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_CZE_avia_organization: "§Y§Y $CZE_avia_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C201" s="1" t="str">
         <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v> invite_FRA_renault_organization: "§Y$FRA_renault_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_FRA_renault_organization: "§Y§Y $FRA_renault_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
-        <v> invite_FRA_renault_organization: "§Y$FRA_renault_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_FRA_renault_organization: "§Y§Y $FRA_renault_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C202" s="1" t="str">
         <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v> invite_JAP_maizuru_naval_arsenal_organization: "§Y$JAP_maizuru_naval_arsenal_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_JAP_maizuru_naval_arsenal_organization: "§Y§Y $JAP_maizuru_naval_arsenal_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
-        <v> invite_JAP_maizuru_naval_arsenal_organization: "§Y$JAP_maizuru_naval_arsenal_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_JAP_maizuru_naval_arsenal_organization: "§Y§Y $JAP_maizuru_naval_arsenal_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C203" s="1" t="str">
         <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v> invite_JAP_mitsubishi_organization: "§Y$JAP_mitsubishi_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_JAP_mitsubishi_organization: "§Y§Y $JAP_mitsubishi_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
-        <v> invite_JAP_mitsubishi_organization: "§Y$JAP_mitsubishi_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_JAP_mitsubishi_organization: "§Y§Y $JAP_mitsubishi_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C204" s="1" t="str">
         <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v> invite_FRA_bloch_organization: "§Y$FRA_bloch_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_FRA_bloch_organization: "§Y§Y $FRA_bloch_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
-        <v> invite_FRA_bloch_organization: "§Y$FRA_bloch_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_FRA_bloch_organization: "§Y§Y $FRA_bloch_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C205" s="1" t="str">
         <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v> invite_GER_junkers_organization: "§Y$GER_junkers_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_junkers_organization: "§Y§Y $GER_junkers_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
-        <v> invite_GER_junkers_organization: "§Y$GER_junkers_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_junkers_organization: "§Y§Y $GER_junkers_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C206" s="1" t="str">
         <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v> invite_GER_mauser_organization: "§Y$GER_mauser_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_mauser_organization: "§Y§Y $GER_mauser_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
-        <v> invite_GER_mauser_organization: "§Y$GER_mauser_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_GER_mauser_organization: "§Y§Y $GER_mauser_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C207" s="1" t="str">
         <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v> invite_ENG_john_brown_organization: "§Y$ENG_john_brown_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_john_brown_organization: "§Y§Y $ENG_john_brown_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
-        <v> invite_ENG_john_brown_organization: "§Y$ENG_john_brown_organization$§! nach §Y[ROOT.GetNameWithFlag]§! einladen"</v>
+        <v> invite_ENG_john_brown_organization: "§Y§Y $ENG_john_brown_organization$ §!§! nach §Y§Y [ROOT.GetNameWithFlag] §!§! einladen"</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,18 +4720,18 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C209" s="1" t="str">
         <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v> invites_mio_tt: "\n§YLädt eine ausländische militärisch-industrielle Organisation in unser Land ein§!:"</v>
+        <v> invites_mio_tt: "\n§Y§Y Lädt eine ausländische militärisch-industrielle Organisation in unserem Land ein §!§! :"</v>
       </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
-        <v> invites_mio_tt: "\n§YLädt eine ausländische militärisch-industrielle Organisation in unser Land ein§!:"</v>
+        <v> invites_mio_tt: "\n§Y§Y Lädt eine ausländische militärisch-industrielle Organisation in unserem Land ein §!§! :"</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,7 +4746,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C211" s="1" t="str">
         <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
@@ -4744,10 +4759,10 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C212" s="1" t="str">
         <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
@@ -4760,10 +4775,10 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C213" s="1" t="str">
         <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
@@ -4776,10 +4791,10 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C214" s="1" t="str">
         <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
@@ -4792,26 +4807,26 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C215" s="1" t="str">
         <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v> purchase_ships_sov: "Alte [SOV.GetFlag][SOV.GetAdjective]e Schlachtschiffe kaufen"</v>
+        <v> purchase_ships_sov: "Alte [SOV.GetFlag][SOV.GetAdjective][SOV.GetAdjective]e Schlachtschiffe kaufen"</v>
       </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
-        <v> purchase_ships_sov: "Alte [SOV.GetFlag][SOV.GetAdjective]e Schlachtschiffe kaufen"</v>
+        <v> purchase_ships_sov: "Alte [SOV.GetFlag][SOV.GetAdjective][SOV.GetAdjective]e Schlachtschiffe kaufen"</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C216" s="1" t="str">
         <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
@@ -4824,10 +4839,10 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C217" s="1" t="str">
         <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
@@ -4840,7 +4855,7 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C218" s="1" t="str">
         <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
@@ -4853,10 +4868,10 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C219" s="1" t="str">
         <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
@@ -4869,10 +4884,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C220" s="1" t="str">
         <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
@@ -4885,10 +4900,10 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C221" s="1" t="str">
         <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
@@ -4901,10 +4916,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C222" s="1" t="str">
         <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
@@ -4917,7 +4932,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C223" s="1" t="str">
         <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
@@ -4930,10 +4945,10 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C224" s="1" t="str">
         <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
@@ -4946,10 +4961,10 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C225" s="1" t="str">
         <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
@@ -4962,555 +4977,339 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C226" s="1" t="str">
         <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v> add_potential_special_forces_tree_tt: "Fügt den Spezialeinheiten §H1§! §HZweigspezialisierung§! hinzu"</v>
+        <v> add_potential_special_forces_tree_tt: "Fügt den Spezialeinheiten §H§H 1 §!§!  §H§H Zweigspezialisierung §!§! hinzu"</v>
       </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
-        <v> add_potential_special_forces_tree_tt: "Fügt den Spezialeinheiten §H1§! §HZweigspezialisierung§! hinzu"</v>
+        <v> add_potential_special_forces_tree_tt: "Fügt den Spezialeinheiten §H§H 1 §!§!  §H§H Zweigspezialisierung §!§! hinzu"</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1" t="str">
-        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1" t="str">
-        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1" t="str">
-        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1" t="str">
-        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1" t="str">
-        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1" t="str">
-        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1" t="str">
-        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1" t="str">
-        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1" t="str">
-        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1" t="str">
-        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1" t="str">
-        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1" t="str">
-        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1" t="str">
-        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1" t="str">
-        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1" t="str">
-        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1" t="str">
-        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1" t="str">
-        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1" t="str">
-        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1" t="str">
-        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1" t="str">
-        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1" t="str">
-        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1" t="str">
-        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1" t="str">
-        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1" t="str">
-        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1" t="str">
-        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1" t="str">
-        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1" t="str">
-        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1" t="str">
-        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1" t="str">
-        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1" t="str">
-        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1" t="str">
-        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1" t="str">
-        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1" t="str">
-        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1" t="str">
-        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1" t="str">
-        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1" t="str">
-        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1" t="str">
-        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1" t="str">
-        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1" t="str">
-        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1" t="str">
-        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1" t="str">
-        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1" t="str">
-        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1" t="str">
-        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1" t="str">
-        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1" t="str">
-        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1" t="str">
-        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1" t="str">
-        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1" t="str">
-        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1" t="str">
-        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1" t="str">
-        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1" t="str">
-        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1" t="str">
-        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1" t="str">
-        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1" t="str">
-        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
         <v/>
@@ -5518,2110 +5317,1266 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2"/>
-      <c r="C281" s="1" t="str">
-        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1" t="str">
-        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1" t="str">
-        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1" t="str">
-        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1" t="str">
-        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1" t="str">
-        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1" t="str">
-        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1" t="str">
-        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1" t="str">
-        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1" t="str">
-        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1" t="str">
-        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1" t="str">
-        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1" t="str">
-        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1" t="str">
-        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1" t="str">
-        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1" t="str">
-        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1" t="str">
-        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1" t="str">
-        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1" t="str">
-        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1" t="str">
-        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1" t="str">
-        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1" t="str">
-        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1" t="str">
-        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1" t="str">
-        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1" t="str">
-        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1" t="str">
-        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1" t="str">
-        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1" t="str">
-        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1" t="str">
-        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1" t="str">
-        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1" t="str">
-        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1" t="str">
-        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1" t="str">
-        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1" t="str">
-        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1" t="str">
-        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1" t="str">
-        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="str">
-        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1" t="str">
-        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1" t="str">
-        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1" t="str">
-        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1" t="str">
-        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1" t="str">
-        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1" t="str">
-        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1" t="str">
-        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1" t="str">
-        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1" t="str">
-        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1" t="str">
-        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1" t="str">
-        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1" t="str">
-        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1" t="str">
-        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1" t="str">
-        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1" t="str">
-        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1" t="str">
-        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1" t="str">
-        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1" t="str">
-        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1" t="str">
-        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1" t="str">
-        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1" t="str">
-        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1" t="str">
-        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1" t="str">
-        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1" t="str">
-        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1" t="str">
-        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1" t="str">
-        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1" t="str">
-        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1" t="str">
-        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1" t="str">
-        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1" t="str">
-        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1" t="str">
-        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1" t="str">
-        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1" t="str">
-        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1" t="str">
-        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1" t="str">
-        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1" t="str">
-        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1" t="str">
-        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1" t="str">
-        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1" t="str">
-        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1" t="str">
-        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1" t="str">
-        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1" t="str">
-        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1" t="str">
-        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1" t="str">
-        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1" t="str">
-        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1" t="str">
-        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1" t="str">
-        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1" t="str">
-        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1" t="str">
-        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1" t="str">
-        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1" t="str">
-        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1" t="str">
-        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1" t="str">
-        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1" t="str">
-        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1" t="str">
-        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1" t="str">
-        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1" t="str">
-        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1" t="str">
-        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1" t="str">
-        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1" t="str">
-        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1" t="str">
-        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1" t="str">
-        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1" t="str">
-        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1" t="str">
-        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1" t="str">
-        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1" t="str">
-        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1" t="str">
-        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1" t="str">
-        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1" t="str">
-        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1" t="str">
-        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1" t="str">
-        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1" t="str">
-        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1" t="str">
-        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1" t="str">
-        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1" t="str">
-        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1" t="str">
-        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1" t="str">
-        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1" t="str">
-        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1" t="str">
-        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
